--- a/index/simple_index.xlsx
+++ b/index/simple_index.xlsx
@@ -3552,7 +3552,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>91590577.074966</v>
+        <v>91588375.65528162</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>91852399.55475907</v>
+        <v>91862824.48688692</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>91746696.29287803</v>
+        <v>91767389.78566167</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>92040621.58088273</v>
+        <v>92053838.44279197</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>92142032.51874004</v>
+        <v>92155059.76916017</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>90755940.27730724</v>
+        <v>90774469.7298585</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>90497787.06283323</v>
+        <v>90517311.16726176</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>90979852.50947714</v>
+        <v>91014831.38520384</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>91123542.18456793</v>
+        <v>91146401.07135269</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>91637426.68123658</v>
+        <v>91663204.95534401</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>91751739.50449695</v>
+        <v>91780055.14435162</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>91551735.08775437</v>
+        <v>91585109.72290005</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>91510086.90883146</v>
+        <v>91544447.35323609</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>91268215.4300853</v>
+        <v>91298049.72258715</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>91043819.36495453</v>
+        <v>91077924.26265277</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>90522059.66600944</v>
+        <v>90559500.90825443</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>90392151.03603788</v>
+        <v>90431855.89186512</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>89241811.30407299</v>
+        <v>89289377.43908642</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>89301480.24573593</v>
+        <v>89356482.34138876</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>89050881.66006105</v>
+        <v>89095863.36289503</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>89930895.15707192</v>
+        <v>89972776.48794411</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>89489838.79617472</v>
+        <v>89521838.07935655</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>88927425.5341506</v>
+        <v>88968152.96156298</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>88880147.45157887</v>
+        <v>88911987.51983756</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>89431943.36268663</v>
+        <v>89462772.87671217</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>89374419.42382143</v>
+        <v>89400373.11160417</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>89148739.42434557</v>
+        <v>89173386.77441892</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>90541464.23834416</v>
+        <v>90558139.4192746</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>91541296.42263168</v>
+        <v>91566750.47919507</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>92022765.73969272</v>
+        <v>92044552.87526895</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>92860507.78362517</v>
+        <v>92887712.64528053</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>92300887.62421407</v>
+        <v>92331867.3873785</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>92464863.72043596</v>
+        <v>92485830.82498987</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>91986019.56484707</v>
+        <v>91990922.56999277</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>92411645.05425447</v>
+        <v>92428144.16112228</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>91793382.85099836</v>
+        <v>91805946.505896</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>91906715.26562656</v>
+        <v>91921446.46873599</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>92473334.15687451</v>
+        <v>92496648.80116864</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>92395779.63517305</v>
+        <v>92431807.77758668</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>92160639.40450706</v>
+        <v>92203230.98960629</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>91010520.17711185</v>
+        <v>91061198.01916698</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>88703536.50572409</v>
+        <v>88761958.4558651</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>87988615.79680641</v>
+        <v>88047380.28968173</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>88549895.52535123</v>
+        <v>88610045.33231543</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>88586427.65019095</v>
+        <v>88648941.3544735</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>88857977.71590993</v>
+        <v>88913433.95270355</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>89334533.08788043</v>
+        <v>89380814.16959399</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>89797828.45447454</v>
+        <v>89837646.28942353</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>89496009.35759594</v>
+        <v>89538013.80685991</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>88963882.23531067</v>
+        <v>89003374.67911059</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>89411080.5560095</v>
+        <v>89446155.79465675</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>90136134.12163027</v>
+        <v>90166950.30900486</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>89196488.78301726</v>
+        <v>89218195.7206012</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>89870447.92858091</v>
+        <v>89901250.19185436</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>89404355.55679348</v>
+        <v>89439597.98226194</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>89908522.27233645</v>
+        <v>89945742.36874126</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>91203413.7407427</v>
+        <v>91233403.06923415</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>91579765.88833305</v>
+        <v>91615075.94870149</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>91830847.50922351</v>
+        <v>91867936.9571376</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>91885873.77149063</v>
+        <v>91920096.06965706</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>91984729.66076218</v>
+        <v>92019687.02411681</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>92638005.15797032</v>
+        <v>92660075.4468824</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>93820327.9547368</v>
+        <v>93863383.02925181</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>93489910.44648103</v>
+        <v>93522084.92261699</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>93288619.11737932</v>
+        <v>93330545.53413452</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>93467814.17768286</v>
+        <v>93504505.54610291</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>93561797.77183154</v>
+        <v>93599307.24326989</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>92002127.05788492</v>
+        <v>92033947.64268975</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>92171753.93057527</v>
+        <v>92191874.86370233</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>92164267.60517415</v>
+        <v>92164882.47608313</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>93311804.49957694</v>
+        <v>93323677.013945</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>92618074.41953576</v>
+        <v>92633842.5167985</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>93794905.93791729</v>
+        <v>93819537.89376855</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>94677810.58231089</v>
+        <v>94708833.12445714</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>94882722.06675698</v>
+        <v>94921990.86515795</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>96015184.38129382</v>
+        <v>96059074.328748</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>96286987.1068083</v>
+        <v>96335753.3363229</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>95653898.31603378</v>
+        <v>95689934.88941664</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>96254075.86044332</v>
+        <v>96281061.22454569</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>96705757.99201755</v>
+        <v>96744937.32128194</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>96332107.12723215</v>
+        <v>96365572.62397358</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>95305727.30269064</v>
+        <v>95343842.22916903</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>95432058.33680655</v>
+        <v>95463330.13661841</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>96611246.23760423</v>
+        <v>96634787.3639849</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>98649002.66575742</v>
+        <v>98685816.38847141</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>97816895.74664192</v>
+        <v>97848179.20397916</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>99222885.18830892</v>
+        <v>99262209.42215018</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>98279077.55715671</v>
+        <v>98293596.35912596</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>98493026.60735701</v>
+        <v>98514134.51998459</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>98294024.07639347</v>
+        <v>98304783.6916143</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>98510999.21929699</v>
+        <v>98510140.59293514</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>98946071.82700945</v>
+        <v>98956426.35733899</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>99495028.88727005</v>
+        <v>99520837.63306832</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>99512587.887943</v>
+        <v>99535729.63100894</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>100328348.5481519</v>
+        <v>100346822.9227576</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>101787600.8440999</v>
+        <v>101808017.6288802</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>102767666.650608</v>
+        <v>102770070.4096717</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>102610752.4852363</v>
+        <v>102623552.2435995</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>102765394.8646929</v>
+        <v>102776162.8532548</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>102973004.2450564</v>
+        <v>102992727.177004</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>103349376.8277128</v>
+        <v>103372565.3282197</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>103185626.3422983</v>
+        <v>103221432.2164464</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>104069384.3502268</v>
+        <v>104071240.0396324</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>104285308.4592435</v>
+        <v>104312859.3208623</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>104276226.5423258</v>
+        <v>104289527.9940797</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>104938535.2827986</v>
+        <v>104954933.9170467</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>105734544.8212758</v>
+        <v>105750220.5732264</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>104359171.7008773</v>
+        <v>104376673.6626643</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>105508565.2583106</v>
+        <v>105511132.5658276</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>105082503.3043994</v>
+        <v>105097304.220982</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>104358484.6102815</v>
+        <v>104373386.1125848</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>103877074.2492864</v>
+        <v>103881582.5783358</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>103914611.0226685</v>
+        <v>103900148.4758792</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>102258192.870505</v>
+        <v>102249570.2829361</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>102185026.5691721</v>
+        <v>102180514.5557411</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>102103804.4693375</v>
+        <v>102080039.1063289</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>102779258.6462393</v>
+        <v>102768755.1217393</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>101714787.1454969</v>
+        <v>101703196.1451431</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>102172463.2837399</v>
+        <v>102145529.1351892</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>101818341.3506496</v>
+        <v>101788539.0589752</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>101338949.038351</v>
+        <v>101312695.0440046</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>101247849.8582895</v>
+        <v>101222305.6634649</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>101434470.3661119</v>
+        <v>101451036.4594703</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>100860569.8681571</v>
+        <v>100846325.3097611</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>100508259.6678614</v>
+        <v>100459038.5458925</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>100201314.5211968</v>
+        <v>100165435.4869397</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>99373993.52052242</v>
+        <v>99321138.10117964</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>98550255.25891219</v>
+        <v>98485436.38934039</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>98962722.70620348</v>
+        <v>98897580.87521322</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>98416254.29960246</v>
+        <v>98364262.26332082</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>98327842.55828336</v>
+        <v>98301174.28220047</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>98830255.1072133</v>
+        <v>98780694.27325997</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>99502280.23608711</v>
+        <v>99426709.37330151</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>99760283.99857639</v>
+        <v>99710515.53093055</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>100208356.6854537</v>
+        <v>100149803.9174707</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>100728087.7915582</v>
+        <v>100664023.6802439</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>100134206.558698</v>
+        <v>100093310.4355042</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>100210913.2144196</v>
+        <v>100176919.8486893</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>100231677.6080801</v>
+        <v>100201767.1157595</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>100947428.3312466</v>
+        <v>100946905.0415446</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>100988134.3823691</v>
+        <v>100946384.2761001</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>100037764.6360744</v>
+        <v>99993978.33880293</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>99515124.66708758</v>
+        <v>99467075.48804109</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>100496284.1826254</v>
+        <v>100433135.2672005</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>100235621.7909758</v>
+        <v>100161199.6710977</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4712,7 +4712,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>98795053.76655017</v>
+        <v>98748245.75574034</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>99289950.21036296</v>
+        <v>99212449.34792449</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>99665479.32294783</v>
+        <v>99595894.57344277</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>99778405.67920732</v>
+        <v>99686281.25487423</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>99818090.28636976</v>
+        <v>99726950.06125048</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>99444973.88489607</v>
+        <v>99337183.59558645</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>98390618.74080254</v>
+        <v>98300422.14150392</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>98321802.35733235</v>
+        <v>98272952.05776565</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>97827043.996278</v>
+        <v>97692749.65986109</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>98131929.01520242</v>
+        <v>97989242.70216148</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>97957613.16259979</v>
+        <v>97813191.73289034</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>97841466.97251689</v>
+        <v>97704272.13484804</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>97662442.09863868</v>
+        <v>97544699.01232997</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>97149523.71336521</v>
+        <v>97057159.62781993</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>97958258.04258844</v>
+        <v>97906237.6817411</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>98286991.44757599</v>
+        <v>98232906.74895905</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>99193741.74170545</v>
+        <v>99107805.44787106</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>99304940.99352701</v>
+        <v>99185518.93969376</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4856,7 +4856,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>99551910.48207378</v>
+        <v>99412062.57695808</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>99465881.45739396</v>
+        <v>99291200.67458518</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>99153133.90681724</v>
+        <v>98939498.96749498</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>97847275.63423342</v>
+        <v>97632744.91568884</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>97029992.3318918</v>
+        <v>96776279.10169296</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>96443214.99364799</v>
+        <v>96161165.53664438</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>96986190.46332046</v>
+        <v>96677370.43837653</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>96223781.18990962</v>
+        <v>95886050.77029271</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>96718527.52730374</v>
+        <v>96318653.7134335</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>96930472.56959195</v>
+        <v>96573615.45801136</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>96164460.64513561</v>
+        <v>95780592.00011985</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>96499399.04620868</v>
+        <v>96135222.86649083</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>96704645.54342821</v>
+        <v>96314337.91084871</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>96703866.13853499</v>
+        <v>96282243.08856536</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>96777681.33277613</v>
+        <v>96361239.22247374</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>97169407.12181149</v>
+        <v>96769605.66652066</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>96339468.08063902</v>
+        <v>95965939.8453099</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>94566207.69914106</v>
+        <v>94179318.84175809</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>92867331.46142583</v>
+        <v>92462972.49728373</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>94314952.01774237</v>
+        <v>93966151.86125657</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>94958904.91098297</v>
+        <v>94615627.50861336</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>95231671.80356947</v>
+        <v>94895499.5746295</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>96727425.26971936</v>
+        <v>96430494.64213389</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>96862766.25135997</v>
+        <v>96559049.01374994</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>96862551.40903594</v>
+        <v>96555534.11749862</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>97463240.6286422</v>
+        <v>97163540.05115956</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>97693522.35563548</v>
+        <v>97401950.22083947</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>98353968.47727561</v>
+        <v>98084998.00267069</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>98322784.22762743</v>
+        <v>98041748.2742182</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>98682053.02931218</v>
+        <v>98401196.99869701</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>98893385.18837395</v>
+        <v>98605812.89260304</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>98740300.148526</v>
+        <v>98446085.79403594</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>98632804.78343178</v>
+        <v>98342936.43111351</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>99708083.0246416</v>
+        <v>99405853.30524015</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>99913114.39064185</v>
+        <v>99607744.01102518</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>101256265.8395067</v>
+        <v>100991461.1936908</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>101292657.2678134</v>
+        <v>101039285.5499049</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>101996033.658847</v>
+        <v>101778860.0543174</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>101513166.5947104</v>
+        <v>101315438.628062</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>101961589.8678852</v>
+        <v>101762488.9668251</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>101347801.7564588</v>
+        <v>101123065.8951015</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>102284856.8482991</v>
+        <v>102074870.5631351</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>102306733.0618931</v>
+        <v>102123531.6828249</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>102533602.0370947</v>
+        <v>102352436.0045945</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5208,7 +5208,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>102515780.5267533</v>
+        <v>102320927.5780905</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>102968475.7681189</v>
+        <v>102780395.2906257</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>102464631.4032599</v>
+        <v>102276727.5937442</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>102489745.325084</v>
+        <v>102313770.3684294</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>102820054.4420131</v>
+        <v>102633620.5374119</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>102502699.6517379</v>
+        <v>102292179.9390022</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>103374472.3639538</v>
+        <v>103162345.8160333</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>102913251.6335649</v>
+        <v>102702700.7590109</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>103596667.5951091</v>
+        <v>103415411.9226457</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5280,7 +5280,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>104071041.0645213</v>
+        <v>103887312.8431782</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>103027692.8905514</v>
+        <v>102840363.2821715</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>104132557.9569902</v>
+        <v>103958439.1514539</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>103943447.3575083</v>
+        <v>103751542.5759219</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>104037364.5765196</v>
+        <v>103853753.1030191</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>103358658.1939436</v>
+        <v>103200275.613889</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>103672420.2633657</v>
+        <v>103515710.2463305</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>103111353.5383755</v>
+        <v>102951565.5875894</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>102999057.2264231</v>
+        <v>102815509.8766123</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>103935179.4251801</v>
+        <v>103775099.9572309</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>104011445.5899672</v>
+        <v>103836648.9743388</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>103029846.1721764</v>
+        <v>102856766.2899166</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>101447508.8089326</v>
+        <v>101298825.2598673</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>100691652.9121031</v>
+        <v>100564758.1049293</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>101239037.9135007</v>
+        <v>101095936.4380135</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>100055725.2112832</v>
+        <v>99907572.49707128</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>101575187.0086462</v>
+        <v>101428200.1550524</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>100474197.1364556</v>
+        <v>100334879.6562926</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>101167643.504371</v>
+        <v>101014315.9095027</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5432,7 +5432,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>100645535.7720331</v>
+        <v>100495247.3070964</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5440,7 +5440,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>99833562.06183399</v>
+        <v>99670103.59630339</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>99255529.56227443</v>
+        <v>99104220.70693745</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>98416329.50836806</v>
+        <v>98260299.71030596</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>99450532.37949562</v>
+        <v>99313683.11311553</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5472,7 +5472,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>100022501.8653541</v>
+        <v>99875984.86683409</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5480,7 +5480,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>100387885.1363851</v>
+        <v>100218347.5175709</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>101288323.9867478</v>
+        <v>101119253.0034059</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>102546963.2107925</v>
+        <v>102371306.7857943</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>101941516.2842961</v>
+        <v>101767652.2022569</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5512,7 +5512,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>100403731.8704541</v>
+        <v>100235607.4301452</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>101333271.7681791</v>
+        <v>101163113.4852947</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>100997808.6482295</v>
+        <v>100814080.5644336</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>101678675.1747736</v>
+        <v>101491045.7667913</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>103000377.7556982</v>
+        <v>102800203.5535317</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>103230493.6010874</v>
+        <v>103042234.0794461</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>104114624.0638251</v>
+        <v>103917943.0239439</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>104305825.3177519</v>
+        <v>104125363.3392535</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>104807134.0632614</v>
+        <v>104620497.1251245</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>104907440.1883773</v>
+        <v>104718027.9333445</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>105060882.0256556</v>
+        <v>104875290.82944</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>105856066.5226989</v>
+        <v>105675384.1226339</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>106074330.0365329</v>
+        <v>105902690.6906579</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>107264867.4456765</v>
+        <v>107091758.2198874</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>107631652.9298288</v>
+        <v>107456391.5868321</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>108468526.5898107</v>
+        <v>108297733.7389594</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>109667244.6885233</v>
+        <v>109510457.5952377</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>110292458.9505156</v>
+        <v>110136049.7817817</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>110163753.2237945</v>
+        <v>110019250.9738711</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>108577500.8833414</v>
+        <v>108431175.1052289</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>109175495.6422109</v>
+        <v>109036582.1459517</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>107725781.8893263</v>
+        <v>107586243.4219571</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>104966252.3875224</v>
+        <v>104819282.6428771</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>103683001.0998674</v>
+        <v>103540607.1076102</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>101204631.2884139</v>
+        <v>101058834.7223553</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>101971268.0499869</v>
+        <v>101828017.8199847</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>100674802.4930968</v>
+        <v>100533691.448311</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>100701161.3465135</v>
+        <v>100562504.8466245</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>100282669.783806</v>
+        <v>100137104.8387561</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>100646084.0627367</v>
+        <v>100507456.0946807</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>102375134.3346495</v>
+        <v>102248735.8182857</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>101286495.7086854</v>
+        <v>101164566.3039557</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>102212388.496943</v>
+        <v>102084305.362902</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>101672503.7374968</v>
+        <v>101543289.1890037</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5784,7 +5784,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>103132433.1314261</v>
+        <v>102996315.1957967</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>103666159.1335434</v>
+        <v>103533331.1037183</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>103214376.1473735</v>
+        <v>103086264.1282249</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>101848694.1342204</v>
+        <v>101711347.3027185</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>101095315.8806974</v>
+        <v>100969589.6850081</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>100450478.1290092</v>
+        <v>100322715.9551861</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>100796823.3706453</v>
+        <v>100657736.7685378</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>99300882.05187534</v>
+        <v>99157383.11272004</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>100310705.6816205</v>
+        <v>100172822.3039054</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>101774398.1414119</v>
+        <v>101640805.8293303</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>102851968.7533159</v>
+        <v>102724267.8228296</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>102342857.5742059</v>
+        <v>102211272.1080346</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>101271355.877566</v>
+        <v>101147981.6277744</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>102001822.2546514</v>
+        <v>101881970.5173988</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>101871011.1279171</v>
+        <v>101752559.1981838</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>101396315.0748543</v>
+        <v>101275658.1422522</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>101684954.7578689</v>
+        <v>101567891.6554497</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>101760369.3030019</v>
+        <v>101651608.429977</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>101500694.0428696</v>
+        <v>101389435.0663241</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>98424866.29744402</v>
+        <v>98322011.35765089</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>99672748.90541217</v>
+        <v>99566009.46479283</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>100411656.4472532</v>
+        <v>100305403.8129073</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>98914533.59071103</v>
+        <v>98813504.19320129</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>100047067.7781879</v>
+        <v>99938892.56830671</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5976,7 +5976,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>101038141.742926</v>
+        <v>100926589.3964664</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>101754979.1898492</v>
+        <v>101646950.0766547</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>102281569.7006353</v>
+        <v>102147690.0975174</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6000,7 +6000,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>101196936.395253</v>
+        <v>101053421.351111</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6008,7 +6008,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>101290281.1081125</v>
+        <v>101145296.6838006</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>101419609.2867356</v>
+        <v>101263967.1273148</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>101862636.0295332</v>
+        <v>101701877.9927665</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>102273690.2083489</v>
+        <v>102103619.8698528</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>102865441.7358553</v>
+        <v>102657985.1055571</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>102156189.7453952</v>
+        <v>101986866.6349168</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>102314813.0692071</v>
+        <v>102141312.5255377</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>102897020.8950405</v>
+        <v>102729752.0333132</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>103046921.5833608</v>
+        <v>102884356.1909229</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>103166780.391677</v>
+        <v>103025480.3146846</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>103356437.8083136</v>
+        <v>103220976.5731792</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>103262129.1480044</v>
+        <v>103130231.8560884</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>102346500.1465091</v>
+        <v>102218776.2317211</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>103214032.2256677</v>
+        <v>103085666.1715073</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>102913076.1497734</v>
+        <v>102778839.3963352</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>103565227.5892773</v>
+        <v>103443007.5834779</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>104059246.5909333</v>
+        <v>103949635.950361</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>104338652.2167628</v>
+        <v>104240406.3464737</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>104335726.1039581</v>
+        <v>104243199.9947701</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>103265114.3965161</v>
+        <v>103164829.3997606</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>102316802.7614344</v>
+        <v>102221057.2177011</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>100680740.8769159</v>
+        <v>100586394.8572137</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>101352854.8675986</v>
+        <v>101246014.054926</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>101519711.3320917</v>
+        <v>101407942.7493719</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>102850052.4928305</v>
+        <v>102729549.1665434</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>102545821.7466051</v>
+        <v>102424356.4638284</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>102605074.2576388</v>
+        <v>102491404.5505215</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>102309717.7423438</v>
+        <v>102185795.9845102</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>101564249.3025665</v>
+        <v>101446593.5813096</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>102563069.865461</v>
+        <v>102445789.0746474</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>102795949.2616451</v>
+        <v>102670190.0354235</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>101429735.1462576</v>
+        <v>101307629.9098034</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>101272394.3245261</v>
+        <v>101147362.8318221</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>100070131.1193006</v>
+        <v>99944995.45697145</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>100774723.6585754</v>
+        <v>100648747.8009293</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>99881185.92042553</v>
+        <v>99754447.50576861</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>98860224.47810733</v>
+        <v>98733354.85696012</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>99594647.71932571</v>
+        <v>99458335.13774852</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>99969477.27825995</v>
+        <v>99834925.38126315</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>99613567.45081984</v>
+        <v>99487891.33720395</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>99219596.27506337</v>
+        <v>99100504.53109692</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>100236764.5904174</v>
+        <v>100105686.5054851</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>99898401.9199066</v>
+        <v>99770133.62081708</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>100678602.7822756</v>
+        <v>100562283.5416534</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>101012425.5374588</v>
+        <v>100896437.947817</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>99407141.08656873</v>
+        <v>99273164.90324385</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>98793808.91534704</v>
+        <v>98665885.21322483</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>96413550.32792397</v>
+        <v>96296304.42292601</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>93231246.43809445</v>
+        <v>93131273.74269806</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>94372902.47062212</v>
+        <v>94267609.1324067</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>92793677.54659048</v>
+        <v>92687741.61290367</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>93267973.59703943</v>
+        <v>93152827.57305595</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>93545518.83085668</v>
+        <v>93431414.47032015</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>93230893.9829244</v>
+        <v>93116338.45719559</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>92513990.88901779</v>
+        <v>92402734.41850309</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>92149079.04849225</v>
+        <v>92039495.75633676</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>92612941.35160516</v>
+        <v>92502186.64536037</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>89495647.80908859</v>
+        <v>89392504.0106332</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>89060481.67315668</v>
+        <v>88961516.98270613</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>89037558.82685922</v>
+        <v>88939712.26555037</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>88597953.67902102</v>
+        <v>88502984.68347944</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>90348227.94132809</v>
+        <v>90253184.65157375</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>90603760.28941262</v>
+        <v>90516786.25877918</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>90987713.60823171</v>
+        <v>90898605.62339622</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>90125163.78036971</v>
+        <v>90032939.69426635</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>90929259.70381644</v>
+        <v>90835695.75133239</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>91630352.56095989</v>
+        <v>91533619.59554929</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>91607860.86484523</v>
+        <v>91509226.70949431</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>91093373.94966599</v>
+        <v>90996954.31774645</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>90360641.72465053</v>
+        <v>90261090.51926187</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>89174135.37556179</v>
+        <v>89077164.40186493</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>89550550.93395516</v>
+        <v>89452542.75094876</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>88621455.74821524</v>
+        <v>88523531.65554452</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>89305902.25301318</v>
+        <v>89211544.79255749</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -6600,7 +6600,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>88866080.32433203</v>
+        <v>88774440.35473301</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>89555682.65182307</v>
+        <v>89465527.17000693</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>89516806.40949769</v>
+        <v>89426607.68177426</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>89221855.93505824</v>
+        <v>89133745.90597178</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>89528386.31874265</v>
+        <v>89437055.21866515</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>90604869.68912978</v>
+        <v>90504625.79314722</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>89084076.53913318</v>
+        <v>88985212.60642987</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>90282696.77307898</v>
+        <v>90193664.19583677</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>90924361.60867319</v>
+        <v>90836043.41640472</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>91128318.20558664</v>
+        <v>91036905.70920511</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>90725166.80580845</v>
+        <v>90628143.14941077</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>90668265.78949583</v>
+        <v>90567953.51044148</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>90860961.96025848</v>
+        <v>90764776.41727608</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>88495141.47432029</v>
+        <v>88403463.57957138</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>89639908.41532613</v>
+        <v>89548510.63837616</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>89135749.39606123</v>
+        <v>89049504.76819645</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6728,7 +6728,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>89520428.05593187</v>
+        <v>89431442.76304907</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>89527949.19054738</v>
+        <v>89444456.04635412</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>89916971.65966246</v>
+        <v>89829953.04142281</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>88859367.90793931</v>
+        <v>88765311.44409074</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>89337646.7695156</v>
+        <v>89239853.49683963</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>89912381.80086498</v>
+        <v>89818970.15864015</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>90413726.00303842</v>
+        <v>90316665.30807304</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>90578758.41723639</v>
+        <v>90482617.73972599</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>90819057.37779291</v>
+        <v>90721189.35772048</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>90457564.22288865</v>
+        <v>90359721.92370422</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>91280927.04702052</v>
+        <v>91184163.23736148</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>90706468.26997451</v>
+        <v>90606464.76871863</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>90865875.13885336</v>
+        <v>90766150.82453564</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>90388503.00935084</v>
+        <v>90292456.56535363</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>89894759.277036</v>
+        <v>89798593.46372262</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>90309812.20252091</v>
+        <v>90217607.2804535</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>90245308.14592807</v>
+        <v>90156076.47182181</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>90822956.15416226</v>
+        <v>90741863.97359037</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>91360547.06047574</v>
+        <v>91279758.18778649</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>92247929.06228174</v>
+        <v>92167163.68213646</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>93084862.32680762</v>
+        <v>92996830.8123869</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>92293546.25528964</v>
+        <v>92208166.58098319</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>92350304.47394849</v>
+        <v>92269702.50555776</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>91684846.72614318</v>
+        <v>91607242.24579708</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>91393979.05919087</v>
+        <v>91314681.70132408</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>92154537.23619647</v>
+        <v>92077882.65003419</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>92848918.33171234</v>
+        <v>92773880.91330016</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>93120479.99936296</v>
+        <v>93046094.41265687</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>93155113.19812508</v>
+        <v>93080535.36378182</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>91972906.19979665</v>
+        <v>91902372.42939961</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>90598811.20809913</v>
+        <v>90524545.7325681</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>90074700.3279181</v>
+        <v>90004925.68826482</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>88991138.07004502</v>
+        <v>88926195.78292456</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>87348194.56704324</v>
+        <v>87281337.94690609</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>82793979.37714039</v>
+        <v>82719452.19641845</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>84039674.0888359</v>
+        <v>83961980.47507919</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>83196420.68319911</v>
+        <v>83119660.59896408</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>83664325.13690233</v>
+        <v>83591106.5312885</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>84384664.00527267</v>
+        <v>84317717.51368552</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>83514472.11064966</v>
+        <v>83450788.73482652</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>83407377.38738948</v>
+        <v>83342805.29339691</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7056,7 +7056,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>83279432.06982714</v>
+        <v>83215331.99537052</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>80607127.92337763</v>
+        <v>80543313.60981867</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>80808155.17448351</v>
+        <v>80736018.40305763</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>79243216.53307639</v>
+        <v>79169717.58438817</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>77052008.37380986</v>
+        <v>76985288.9317937</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>74554304.73777336</v>
+        <v>74485136.3676102</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>75534028.85065039</v>
+        <v>75460502.08576621</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>76462702.75371552</v>
+        <v>76398671.8473016</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7120,7 +7120,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>76280137.49961713</v>
+        <v>76211882.79480052</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>78445696.27264671</v>
+        <v>78378488.75207008</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>77491601.39862193</v>
+        <v>77423685.3910702</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7144,7 +7144,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>78528416.12468438</v>
+        <v>78461801.3570931</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>76573385.1456314</v>
+        <v>76513580.99215083</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>77247836.28775032</v>
+        <v>77184013.23372295</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>77237008.81040929</v>
+        <v>77179621.42668159</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>76592231.55035672</v>
+        <v>76536554.21115336</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>76658381.44880639</v>
+        <v>76603850.53378418</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>77123023.87403487</v>
+        <v>77070184.14535245</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>78228825.59310301</v>
+        <v>78175793.53904551</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7208,7 +7208,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>79568041.96475989</v>
+        <v>79512843.25365488</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>80828062.10293593</v>
+        <v>80772488.02064814</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>80792774.30153526</v>
+        <v>80737491.96600479</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>81472994.92133935</v>
+        <v>81417114.78912982</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>81261772.48491751</v>
+        <v>81196317.86907767</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7248,7 +7248,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>80489715.2306588</v>
+        <v>80424822.01493043</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>81504417.32939059</v>
+        <v>81440935.77260596</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7264,7 +7264,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>81973972.80937193</v>
+        <v>81911869.59566462</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>82417514.92763381</v>
+        <v>82352433.30352196</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>82801018.45750324</v>
+        <v>82738350.77640754</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>82830106.22951941</v>
+        <v>82765733.14174587</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>84048201.00537504</v>
+        <v>83982086.68946965</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>83408287.23926882</v>
+        <v>83343786.26880473</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>82528925.8107201</v>
+        <v>82464024.63747968</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7320,7 +7320,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>81427425.65681694</v>
+        <v>81363713.88550347</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>81067103.21782617</v>
+        <v>81003308.71617377</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>79915177.05409028</v>
+        <v>79853082.44199035</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7344,7 +7344,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>80116660.07485275</v>
+        <v>80053119.03198555</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>81590629.83102155</v>
+        <v>81531582.24371125</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>82330660.03688718</v>
+        <v>82273077.99008296</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>82220639.42361353</v>
+        <v>82160950.06901076</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>82365618.09616934</v>
+        <v>82306334.68224052</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>81666997.25787066</v>
+        <v>81613075.97633058</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>82137690.59664173</v>
+        <v>82085394.76769601</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>81565363.91641034</v>
+        <v>81517601.64202724</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>81494611.98875937</v>
+        <v>81450530.04040654</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>81037732.1292228</v>
+        <v>80991641.10656431</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>80172819.16289222</v>
+        <v>80126359.34886347</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>80307741.12088531</v>
+        <v>80261216.2174997</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>80926773.63517368</v>
+        <v>80883305.23156284</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>79100822.15587953</v>
+        <v>79048938.52813387</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>78392219.27924572</v>
+        <v>78352456.06707314</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>79089415.17816715</v>
+        <v>79048639.03089795</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7472,7 +7472,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>80142364.68385735</v>
+        <v>80098892.94398877</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>80083497.82140061</v>
+        <v>80041928.40746678</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>81150694.53842334</v>
+        <v>81103941.19776043</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>80692824.87304531</v>
+        <v>80641440.19396183</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>81220420.02727476</v>
+        <v>81166700.81699495</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>80720365.84975547</v>
+        <v>80666288.96964653</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>81279537.55875407</v>
+        <v>81227480.15853836</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>80955421.88571544</v>
+        <v>80907177.4515125</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>81224251.16034032</v>
+        <v>81178866.777275</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>82042677.55647728</v>
+        <v>81994989.95731744</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>81545399.31596015</v>
+        <v>81497501.20211837</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>81382161.39704379</v>
+        <v>81335099.06811032</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>81892733.68345176</v>
+        <v>81848154.94821851</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>81732281.86620644</v>
+        <v>81685965.24115248</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>82654208.94649084</v>
+        <v>82601802.67505983</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>82656598.25103913</v>
+        <v>82605560.26253267</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>82296933.73905547</v>
+        <v>82248821.30465738</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>82319501.48967236</v>
+        <v>82272584.10255897</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>82954979.27672555</v>
+        <v>82909313.99369612</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>82355638.53294469</v>
+        <v>82311094.11142719</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>82440051.45423345</v>
+        <v>82402176.9708526</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>81834889.75964393</v>
+        <v>81790559.35918301</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>82134076.17165476</v>
+        <v>82091206.94247563</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>82460517.34807749</v>
+        <v>82421987.88107044</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>82925787.67998031</v>
+        <v>82884847.15964156</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>83911105.57127118</v>
+        <v>83876606.48167732</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>83642395.7373949</v>
+        <v>83603114.21895845</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>84292892.57823773</v>
+        <v>84257590.16019779</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>84651952.03560403</v>
+        <v>84611526.74884164</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>85451079.26538412</v>
+        <v>85414475.2783929</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>85187662.68002172</v>
+        <v>85152212.20192446</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -7720,7 +7720,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>85171319.39386348</v>
+        <v>85136094.25591882</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>85624155.78055647</v>
+        <v>85593308.91676919</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>85602039.81998135</v>
+        <v>85566578.33332694</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -7744,7 +7744,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>85873323.74603187</v>
+        <v>85836549.89229998</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>85392653.82544304</v>
+        <v>85356260.30034725</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>85900272.2568379</v>
+        <v>85860036.20604552</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>86174495.24753797</v>
+        <v>86132660.24215887</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>86161539.04559022</v>
+        <v>86114881.38352408</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -7784,7 +7784,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>85909541.87570745</v>
+        <v>85856827.34863696</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -7792,7 +7792,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>85240879.63675465</v>
+        <v>85184497.73057301</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>85043745.77020919</v>
+        <v>84986778.84115794</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -7808,7 +7808,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>85702866.61786747</v>
+        <v>85649829.31841998</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>85771884.21261199</v>
+        <v>85721883.57009822</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -7824,7 +7824,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>86550659.88916346</v>
+        <v>86501309.64206927</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -7832,7 +7832,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>87002940.05977102</v>
+        <v>86958718.34769851</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -7840,7 +7840,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>87351617.57321523</v>
+        <v>87310317.16304803</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>86805930.24315764</v>
+        <v>86772510.13260339</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>86539906.92199482</v>
+        <v>86509756.48999944</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -7864,7 +7864,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>85123692.90384594</v>
+        <v>85093106.20435868</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -7872,7 +7872,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>84591157.34937009</v>
+        <v>84551985.64960133</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -7880,7 +7880,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>82880340.04183231</v>
+        <v>82845091.83222409</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -7888,7 +7888,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>83243365.22847275</v>
+        <v>83210827.40178987</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -7896,7 +7896,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>82914867.01926558</v>
+        <v>82880161.19369139</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -7904,7 +7904,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>81959657.89316778</v>
+        <v>81924506.67427047</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>82360909.41325864</v>
+        <v>82334663.16259313</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>83331814.58835977</v>
+        <v>83298665.95354238</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -7928,7 +7928,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>83407745.96436705</v>
+        <v>83371435.73736311</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>84218851.08239454</v>
+        <v>84187792.88942079</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -7944,7 +7944,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>84305104.02807847</v>
+        <v>84275701.73973048</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -7952,7 +7952,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>84244061.8989969</v>
+        <v>84216951.58909282</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -7960,7 +7960,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>84696332.58831032</v>
+        <v>84693382.2681132</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -7968,7 +7968,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>85075455.92098689</v>
+        <v>85069925.30672652</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>85715094.90826984</v>
+        <v>85724373.97837412</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>86205776.79074168</v>
+        <v>86225453.31095268</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -7992,7 +7992,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>87025474.77923791</v>
+        <v>87091606.93392023</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8000,7 +8000,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>88112895.72446026</v>
+        <v>88175091.32250294</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -8008,7 +8008,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>87634385.19691424</v>
+        <v>87682000.67525183</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -8016,7 +8016,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>87994984.49956302</v>
+        <v>88027041.32866837</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>86634290.87430151</v>
+        <v>86665632.54130132</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -8032,7 +8032,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>87149881.59723234</v>
+        <v>87186196.52530371</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -8040,7 +8040,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>87256224.66942665</v>
+        <v>87299495.86163548</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -8048,7 +8048,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>87107528.59432298</v>
+        <v>87128650.2136206</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8056,7 +8056,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>85874084.23178026</v>
+        <v>85898112.37594053</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>85325961.99852319</v>
+        <v>85354433.57434347</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -8072,7 +8072,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>84687327.47918989</v>
+        <v>84714783.79007754</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -8080,7 +8080,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>85785747.6398215</v>
+        <v>85811278.81873648</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -8088,7 +8088,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>84987091.35362197</v>
+        <v>85018954.9748795</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -8096,7 +8096,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>85619674.4084453</v>
+        <v>85654570.02423568</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -8104,7 +8104,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>84750682.52591102</v>
+        <v>84787636.41711447</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>83778691.13429786</v>
+        <v>83816087.75062273</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>83101442.73251852</v>
+        <v>83141925.90520728</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -8128,7 +8128,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>81103012.91549076</v>
+        <v>81152819.46844167</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>80799250.65091796</v>
+        <v>80843436.53338113</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>78912515.63530201</v>
+        <v>78949415.58711532</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -8152,7 +8152,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>79622544.52203637</v>
+        <v>79684421.19090849</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>80668219.70448108</v>
+        <v>80736314.84981304</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8168,7 +8168,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>80055839.51889293</v>
+        <v>80112092.52526835</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8176,7 +8176,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>79383834.22377256</v>
+        <v>79444849.67353685</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -8184,7 +8184,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>78838319.18054569</v>
+        <v>78899364.58850649</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8192,7 +8192,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>78892127.85078986</v>
+        <v>78959004.72509761</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8200,7 +8200,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>78818630.46196923</v>
+        <v>78894268.68957654</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>78562813.63650922</v>
+        <v>78647712.51237649</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8216,7 +8216,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>78692935.30075243</v>
+        <v>78786175.58204922</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>78393018.81605664</v>
+        <v>78467857.45767625</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -8232,7 +8232,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>79149753.28238134</v>
+        <v>79229630.24104135</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>77579145.31983142</v>
+        <v>77662153.60419023</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8248,7 +8248,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>77300149.39472176</v>
+        <v>77383671.92273881</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8256,7 +8256,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>77407334.93167686</v>
+        <v>77488084.03951496</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>77543764.97686891</v>
+        <v>77627624.08247995</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8272,7 +8272,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>77612645.1385791</v>
+        <v>77697081.565136</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8280,7 +8280,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>77712482.62799786</v>
+        <v>77803512.04902257</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8288,7 +8288,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>78073154.59405705</v>
+        <v>78171120.35939996</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -8296,7 +8296,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>78665333.6015172</v>
+        <v>78755522.45743261</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -8304,7 +8304,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>79549300.61194572</v>
+        <v>79631920.76235239</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>79431672.97664277</v>
+        <v>79505116.014906</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>81119790.42691882</v>
+        <v>81199238.68282753</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -8328,7 +8328,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>79525920.51724933</v>
+        <v>79582959.57743841</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -8336,7 +8336,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>79100842.53263716</v>
+        <v>79153072.34271087</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -8344,7 +8344,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>79362762.11557887</v>
+        <v>79423993.1422032</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -8352,7 +8352,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>79415123.44171533</v>
+        <v>79480875.0864909</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>79949868.28969441</v>
+        <v>80015727.63591716</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -8368,7 +8368,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>79220487.95936574</v>
+        <v>79258868.1855832</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>80203122.15747216</v>
+        <v>80226694.90963984</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -8384,7 +8384,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>79648237.76536386</v>
+        <v>79667199.11979173</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -8392,7 +8392,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>79258768.03893232</v>
+        <v>79278539.07709299</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -8400,7 +8400,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>79397229.87273809</v>
+        <v>79417313.94749305</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -8408,7 +8408,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>78927975.45469452</v>
+        <v>78944469.0216157</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -8416,7 +8416,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>79099251.23598124</v>
+        <v>79123648.54297981</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -8424,7 +8424,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>79152983.03956626</v>
+        <v>79176144.53653319</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -8432,7 +8432,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>78491333.57961844</v>
+        <v>78512237.8575744</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -8440,7 +8440,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>78088040.6758893</v>
+        <v>78095206.03502145</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -8448,7 +8448,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>78773552.39932865</v>
+        <v>78787411.79184462</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -8456,7 +8456,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>76601877.79587013</v>
+        <v>76624961.98533478</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -8464,7 +8464,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>75501287.41361438</v>
+        <v>75524189.72723641</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -8472,7 +8472,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>75316565.21677858</v>
+        <v>75334152.27580391</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -8480,7 +8480,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>76518519.08226489</v>
+        <v>76533902.69053344</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -8488,7 +8488,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>76620764.3879676</v>
+        <v>76640655.94790496</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -8496,7 +8496,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>75896151.03191151</v>
+        <v>75916452.45405698</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -8504,7 +8504,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>76850599.56294543</v>
+        <v>76874827.33267392</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -8512,7 +8512,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>75521182.18329544</v>
+        <v>75543014.71518725</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -8520,7 +8520,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>75397888.0098301</v>
+        <v>75410946.56613861</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -8528,7 +8528,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>76105848.21620102</v>
+        <v>76122651.19782062</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8536,7 +8536,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>75903086.69729488</v>
+        <v>75930596.38580111</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -8544,7 +8544,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>76118370.68188637</v>
+        <v>76147962.9161652</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -8552,7 +8552,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>75394079.51137027</v>
+        <v>75421495.7832174</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>74047214.58805896</v>
+        <v>74076591.4957123</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>73449130.70695491</v>
+        <v>73472956.2270139</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>71694033.3182734</v>
+        <v>71722364.40456359</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>71897909.37637687</v>
+        <v>71928160.00004199</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>71723253.87365468</v>
+        <v>71749431.72866158</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -8600,7 +8600,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>71073916.57841779</v>
+        <v>71096977.79178858</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -8608,7 +8608,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>70072322.61400719</v>
+        <v>70091955.55713855</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -8616,7 +8616,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>67367224.91878332</v>
+        <v>67377177.71220325</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>66602599.91901144</v>
+        <v>66610491.38982929</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>66145908.80915487</v>
+        <v>66150493.65495151</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -8640,7 +8640,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>67432992.07000349</v>
+        <v>67428635.87142856</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>67206611.16079719</v>
+        <v>67194963.57246481</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>66971981.48562308</v>
+        <v>66951042.50240002</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>66596679.11531126</v>
+        <v>66569553.74238332</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>67076528.06333596</v>
+        <v>67045088.13471783</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -8680,7 +8680,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>65614787.47557037</v>
+        <v>65606233.96384542</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -8688,7 +8688,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>66566429.60644867</v>
+        <v>66566782.36629657</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -8696,7 +8696,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>67188056.88395657</v>
+        <v>67184614.50084606</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>67877004.53221643</v>
+        <v>67873426.50408624</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>67856027.95953862</v>
+        <v>67845626.68595679</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>67367883.05786011</v>
+        <v>67353921.26222716</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -8728,7 +8728,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>66046438.89237654</v>
+        <v>66028369.20249757</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -8736,7 +8736,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>65776950.60842507</v>
+        <v>65760191.3658738</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>66466069.0414163</v>
+        <v>66451923.83228568</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>66651954.37166707</v>
+        <v>66630395.00523432</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -8760,7 +8760,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>67955460.75540155</v>
+        <v>67932140.3960069</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>68162738.27948377</v>
+        <v>68144558.54886165</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>68527578.49756142</v>
+        <v>68509425.18725078</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>68945143.39578037</v>
+        <v>68920902.6042878</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>68797436.31759244</v>
+        <v>68780699.95427121</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -8800,7 +8800,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>68518890.60623144</v>
+        <v>68503226.53470652</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -8808,7 +8808,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>68486607.91162798</v>
+        <v>68475485.45113106</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -8816,7 +8816,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>68782835.45093232</v>
+        <v>68776964.46395151</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -8824,7 +8824,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>69312270.01216169</v>
+        <v>69308501.21703644</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>70594410.18713918</v>
+        <v>70590845.06023669</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>70908463.99412583</v>
+        <v>70896557.44856143</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -8848,7 +8848,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>71044478.87497585</v>
+        <v>71022530.35595569</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -8856,7 +8856,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>70854760.62041792</v>
+        <v>70833082.73547888</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -8864,7 +8864,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>71360626.06461933</v>
+        <v>71340082.41423717</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -8872,7 +8872,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>70872226.21117413</v>
+        <v>70847244.47074173</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>71213671.94800122</v>
+        <v>71192432.09051044</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -8888,7 +8888,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>70025507.98500034</v>
+        <v>69997223.04468329</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>69753050.49757293</v>
+        <v>69719908.09822072</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -8904,7 +8904,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>69144560.57588381</v>
+        <v>69111089.08913574</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -8912,7 +8912,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>69281583.28912114</v>
+        <v>69249977.42077687</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>70767442.08390749</v>
+        <v>70739843.18580998</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -8928,7 +8928,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>69511361.64512467</v>
+        <v>69486405.96154058</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -8936,7 +8936,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>68886834.94844441</v>
+        <v>68861967.37860586</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>69470568.46946837</v>
+        <v>69448127.83264838</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -8952,7 +8952,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>69895864.63525708</v>
+        <v>69866097.86083549</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -8960,7 +8960,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>68971354.11762393</v>
+        <v>68939180.16919181</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -8968,7 +8968,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>69041547.48603357</v>
+        <v>69017554.82097456</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>70422888.88981505</v>
+        <v>70389687.20790458</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -8984,7 +8984,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>70838943.90806141</v>
+        <v>70800751.35873173</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -8992,7 +8992,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>71608395.76434202</v>
+        <v>71576774.67002396</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -9000,7 +9000,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>71454380.13013381</v>
+        <v>71421579.53602412</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>71205204.80917692</v>
+        <v>71170023.07585551</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>70755639.65028343</v>
+        <v>70723069.45721248</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>71224441.20086697</v>
+        <v>71189000.7281232</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>70903890.75565979</v>
+        <v>70881901.32492197</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>71322264.55480815</v>
+        <v>71305270.92464349</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>71283400.70002228</v>
+        <v>71273840.63053465</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>71591850.92159179</v>
+        <v>71582905.52224237</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>71774952.83415392</v>
+        <v>71763951.83491199</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>71887272.43545407</v>
+        <v>71853346.01292345</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>72205657.56558634</v>
+        <v>72170356.56964608</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>72380102.16341932</v>
+        <v>72339930.60242516</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>73860032.94701423</v>
+        <v>73818110.80051273</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>74262065.37852755</v>
+        <v>74221505.78470342</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>74271365.62041569</v>
+        <v>74233826.96975249</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>74639542.54376124</v>
+        <v>74609069.5872549</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>73939094.70704153</v>
+        <v>73898667.32161787</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>73494657.59392065</v>
+        <v>73458556.65986948</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -9144,7 +9144,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>73600922.65292662</v>
+        <v>73568670.75839387</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -9152,7 +9152,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>72560619.74652208</v>
+        <v>72529220.83608942</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9160,7 +9160,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>73080860.7895101</v>
+        <v>73046865.4805432</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9168,7 +9168,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>73842518.69461328</v>
+        <v>73801761.84899136</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -9176,7 +9176,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>73824379.92137134</v>
+        <v>73789520.20005718</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -9184,7 +9184,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>73398711.89090604</v>
+        <v>73360449.39360572</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9192,7 +9192,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>72808941.3896513</v>
+        <v>72770481.37662511</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9200,7 +9200,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>71963460.21700814</v>
+        <v>71920287.74037476</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -9208,7 +9208,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>71658573.2021838</v>
+        <v>71612662.76878467</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -9216,7 +9216,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>72975839.75218259</v>
+        <v>72929735.01489529</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -9224,7 +9224,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>73166318.78045911</v>
+        <v>73122765.23847742</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9232,7 +9232,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>74130486.99707286</v>
+        <v>74086263.3178557</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -9240,7 +9240,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>73799243.33901083</v>
+        <v>73751656.11372937</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -9248,7 +9248,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>72980584.63569683</v>
+        <v>72930743.9435463</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -9256,7 +9256,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>73289240.61930846</v>
+        <v>73234945.15459214</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -9264,7 +9264,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>72917206.89052175</v>
+        <v>72864419.41468388</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -9272,7 +9272,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>72276693.08935542</v>
+        <v>72223569.49854743</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9280,7 +9280,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>71468148.60417697</v>
+        <v>71422780.46542647</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9288,7 +9288,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>72200508.11578231</v>
+        <v>72154962.58858237</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -9296,7 +9296,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>71731824.97016518</v>
+        <v>71690006.53895156</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -9304,7 +9304,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>72210030.96783909</v>
+        <v>72160263.79883812</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -9312,7 +9312,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>72276725.28437029</v>
+        <v>72221624.41501366</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -9320,7 +9320,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>72901148.63158622</v>
+        <v>72842969.59016916</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -9328,7 +9328,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>73678164.46591829</v>
+        <v>73624005.68598837</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -9336,7 +9336,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>73664640.00276026</v>
+        <v>73611958.49512072</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -9344,7 +9344,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>74108745.15362409</v>
+        <v>74050625.6312063</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -9352,7 +9352,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>74032898.74925533</v>
+        <v>73974607.97905011</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -9360,7 +9360,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>74432796.50590652</v>
+        <v>74374742.98156391</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -9368,7 +9368,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>74851101.57261844</v>
+        <v>74788415.04188244</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -9376,7 +9376,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>75335733.8151141</v>
+        <v>75285398.85158145</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -9384,7 +9384,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>75443048.43840431</v>
+        <v>75391184.23664656</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -9392,7 +9392,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>75725456.66866919</v>
+        <v>75674868.11986169</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -9400,7 +9400,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>75318661.65768988</v>
+        <v>75270390.48378447</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -9408,7 +9408,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>75699323.91629042</v>
+        <v>75651529.52516872</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -9416,7 +9416,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>74673029.51536538</v>
+        <v>74627406.75530133</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -9424,7 +9424,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>74775711.21229801</v>
+        <v>74732372.96887171</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -9432,7 +9432,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>73398459.51879385</v>
+        <v>73349335.93176115</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -9440,7 +9440,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>74213952.45154102</v>
+        <v>74162259.1914584</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -9448,7 +9448,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>72184863.17972238</v>
+        <v>72127512.22484894</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -9456,7 +9456,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>73020561.87388498</v>
+        <v>72958947.43028988</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -9464,7 +9464,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>73109126.67689662</v>
+        <v>73047848.91785224</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -9472,7 +9472,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>73713548.09697308</v>
+        <v>73651529.11880119</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -9480,7 +9480,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>74012796.26195204</v>
+        <v>73958596.78617875</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -9488,7 +9488,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>74316863.59324646</v>
+        <v>74264893.28503253</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -9496,7 +9496,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>73984892.72898601</v>
+        <v>73934319.99987745</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -9504,7 +9504,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>73864366.09032188</v>
+        <v>73811405.36169842</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -9512,7 +9512,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>73512646.81579107</v>
+        <v>73462417.68499994</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -9520,7 +9520,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>73070317.30652966</v>
+        <v>73024449.19998027</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -9528,7 +9528,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>73324191.12330259</v>
+        <v>73277385.78622633</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -9536,7 +9536,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>72537465.04900619</v>
+        <v>72488065.00506951</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -9544,7 +9544,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>69889477.38480842</v>
+        <v>69832088.26155977</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -9552,7 +9552,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>69987682.5233496</v>
+        <v>69933622.74982491</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -9560,7 +9560,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>68944568.66758855</v>
+        <v>68894710.9892056</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -9568,7 +9568,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>68220432.04884841</v>
+        <v>68163335.39982943</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -9576,7 +9576,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>67609634.34000243</v>
+        <v>67553414.16246749</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -9584,7 +9584,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>68047869.66079511</v>
+        <v>67990822.57020757</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -9592,7 +9592,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>67864391.76684411</v>
+        <v>67808062.11443222</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -9600,7 +9600,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>70302818.49458385</v>
+        <v>70255789.5103559</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -9608,7 +9608,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>69678950.80240758</v>
+        <v>69630333.95089747</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -9616,7 +9616,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>69700472.42179222</v>
+        <v>69656630.07197288</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -9624,7 +9624,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>70665764.86396913</v>
+        <v>70625712.42331719</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -9632,7 +9632,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>71471706.7895034</v>
+        <v>71424679.09217285</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -9640,7 +9640,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>70857650.41254468</v>
+        <v>70797638.15899208</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -9648,7 +9648,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>70403512.75697005</v>
+        <v>70342339.55913839</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -9656,7 +9656,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>70772687.50663228</v>
+        <v>70714481.69961764</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -9664,7 +9664,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>69867777.65787432</v>
+        <v>69805341.40772362</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -9672,7 +9672,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>69642183.98859811</v>
+        <v>69581925.08284394</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -9680,7 +9680,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>68557630.41042382</v>
+        <v>68495912.60682432</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -9688,7 +9688,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>66871528.96553184</v>
+        <v>66804999.35736588</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -9696,7 +9696,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>64038577.74584989</v>
+        <v>63967399.19592585</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -9704,7 +9704,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>64677043.44006676</v>
+        <v>64607271.35247252</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -9712,7 +9712,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>64255133.3368553</v>
+        <v>64159307.23251016</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -9720,7 +9720,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>63882033.63507597</v>
+        <v>63771917.97772101</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -9728,7 +9728,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>62075786.38795106</v>
+        <v>61960350.4525312</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -9736,7 +9736,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>62426241.78464379</v>
+        <v>62307050.75197847</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -9744,7 +9744,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>62744452.70858279</v>
+        <v>62590021.00195264</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -9752,7 +9752,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>63217712.78862649</v>
+        <v>63057833.31131957</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -9760,7 +9760,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>64450695.50927469</v>
+        <v>64302933.9922298</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -9768,7 +9768,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>62865170.31155523</v>
+        <v>62745142.65965632</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -9776,7 +9776,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>60570883.63935229</v>
+        <v>60468010.10604239</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -9784,7 +9784,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>60442420.29119884</v>
+        <v>60337521.35753188</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -9792,7 +9792,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>58908990.40746874</v>
+        <v>58816811.86933765</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -9800,7 +9800,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>55576059.12675697</v>
+        <v>55475593.95678577</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -9808,7 +9808,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>52768372.23936608</v>
+        <v>52676794.24700363</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -9816,7 +9816,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>51781016.23628365</v>
+        <v>51691049.38885954</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -9824,7 +9824,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>51066827.74284435</v>
+        <v>50998294.69388413</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -9832,7 +9832,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>48079580.58820095</v>
+        <v>48028598.98501213</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -9840,7 +9840,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>42638719.79844122</v>
+        <v>42571538.96771564</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -9848,7 +9848,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>45664629.92041634</v>
+        <v>45572620.24768046</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -9856,7 +9856,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>42163591.60773301</v>
+        <v>42048309.57357641</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -9864,7 +9864,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>45758702.89658644</v>
+        <v>45684133.33710077</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -9872,7 +9872,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>49984362.32063589</v>
+        <v>49914722.60468546</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -9880,7 +9880,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>49889939.23421764</v>
+        <v>49818957.56115726</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -9888,7 +9888,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>50850247.08087887</v>
+        <v>50745300.24131189</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -9896,7 +9896,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>51167026.92933033</v>
+        <v>51015959.75438012</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -9904,7 +9904,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>52191562.19236824</v>
+        <v>52044647.39910444</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -9912,7 +9912,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>51441583.70351622</v>
+        <v>51296780.03569135</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -9920,7 +9920,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>52985405.66788436</v>
+        <v>52836256.27298784</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -9928,7 +9928,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>53156773.44601847</v>
+        <v>53007141.66545194</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -9936,7 +9936,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>55504350.19127518</v>
+        <v>55348110.18252555</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -9944,7 +9944,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>56854096.57675857</v>
+        <v>56694057.14712839</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -9952,7 +9952,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>57043559.08990582</v>
+        <v>56882986.33947089</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -9960,7 +9960,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>58224322.48975167</v>
+        <v>58060425.99111885</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -9968,7 +9968,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>58661934.85355576</v>
+        <v>58496806.51346701</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -9976,7 +9976,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>57781241.99672253</v>
+        <v>57618592.73186273</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -9984,7 +9984,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>58756800.17357191</v>
+        <v>58591404.79570363</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -9992,7 +9992,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>58959821.48606666</v>
+        <v>58793854.62053064</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -10000,7 +10000,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>59910679.45484734</v>
+        <v>59742036.00528052</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -10008,7 +10008,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>59707797.55345016</v>
+        <v>59539725.19912073</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -10016,7 +10016,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>58698931.26136134</v>
+        <v>58533698.77954209</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -10024,7 +10024,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>58873141.85410888</v>
+        <v>58707418.9843391</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -10032,7 +10032,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>60032048.24996306</v>
+        <v>59863063.15759625</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -10040,7 +10040,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>59469626.76642914</v>
+        <v>59302224.84253842</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -10048,7 +10048,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>60925518.44204971</v>
+        <v>60754018.30734572</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -10056,7 +10056,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>61853398.73741261</v>
+        <v>61679286.69886746</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -10064,7 +10064,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>62584869.09478283</v>
+        <v>62408698.02960927</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -10072,7 +10072,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>60865745.47682174</v>
+        <v>60694413.5979135</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -10080,7 +10080,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>62170197.95658945</v>
+        <v>61995194.15527963</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -10088,7 +10088,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>62259694.00927646</v>
+        <v>62084438.2842164</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -10096,7 +10096,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>62662567.35805374</v>
+        <v>62486177.57890024</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -10104,7 +10104,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>62582323.40980735</v>
+        <v>62406159.51051974</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -10112,7 +10112,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>61988778.97502337</v>
+        <v>61814285.85266341</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -10120,7 +10120,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>62132136.66605972</v>
+        <v>61957240.00403439</v>
       </c>
     </row>
   </sheetData>

--- a/index/simple_index.xlsx
+++ b/index/simple_index.xlsx
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>99999999.99999997</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>99842054.59050141</v>
+        <v>99841935.38806172</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98563260.99827863</v>
+        <v>98559974.27206786</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>97186838.08836335</v>
+        <v>97181190.07410067</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98227099.56764111</v>
+        <v>98218849.16815063</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>98505335.14188641</v>
+        <v>98496478.03396362</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>98579289.80516839</v>
+        <v>98570844.00294988</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>97168756.25410956</v>
+        <v>97156082.59262919</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>97094144.43848436</v>
+        <v>97083688.13992327</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>96678553.71675728</v>
+        <v>96666277.47315861</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>96964673.01019377</v>
+        <v>96948206.69230857</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>96652236.54557477</v>
+        <v>96643305.07145204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>96321093.83656965</v>
+        <v>96317629.50101295</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>95747300.44518407</v>
+        <v>95748543.32894155</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>95433476.12903817</v>
+        <v>95435956.01931526</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>94304186.03210153</v>
+        <v>94314783.71039517</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>93905416.56714801</v>
+        <v>93913889.69107747</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>94676391.69435984</v>
+        <v>94684377.41424495</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>93706477.13941908</v>
+        <v>93726941.72875036</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>92508714.74030009</v>
+        <v>92543117.12217863</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>92391005.64307222</v>
+        <v>92430118.31044601</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>90667346.81484367</v>
+        <v>90704600.25812668</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>92066788.61114223</v>
+        <v>92106713.29995014</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>92531721.47563133</v>
+        <v>92564420.86315057</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>92500132.10390718</v>
+        <v>92541248.57422501</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>93148166.69285439</v>
+        <v>93182005.5086426</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>91409949.08389777</v>
+        <v>91446382.77689239</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>93687320.81489637</v>
+        <v>93714191.71629274</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>93741107.82240352</v>
+        <v>93762530.10339539</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>93890668.0821086</v>
+        <v>93921227.68821914</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>94211559.26736948</v>
+        <v>94238683.34021711</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>95352753.43534924</v>
+        <v>95369661.12450057</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>95036526.08670048</v>
+        <v>95054570.86918712</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>93749694.92345624</v>
+        <v>93765636.27568513</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>92117984.38109615</v>
+        <v>92133069.23260935</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>92385200.98346354</v>
+        <v>92400145.29035783</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>91545321.44453821</v>
+        <v>91562563.78143057</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>90478864.82092354</v>
+        <v>90499931.65117301</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>90865335.32998003</v>
+        <v>90881416.83441207</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>90205385.18962482</v>
+        <v>90224358.47118369</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>91461283.91359234</v>
+        <v>91483681.24672082</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>90672791.56572863</v>
+        <v>90707255.99821201</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>90491400.52074687</v>
+        <v>90528336.15670151</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>90053060.58577527</v>
+        <v>90089025.83766577</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>89099314.23123601</v>
+        <v>89126349.97636016</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>90191417.08208503</v>
+        <v>90220641.06769134</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>89335011.88823867</v>
+        <v>89372935.38342129</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>90794749.05875196</v>
+        <v>90833382.82377139</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>91153715.6207636</v>
+        <v>91178526.36552803</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>92009889.06897672</v>
+        <v>92031202.25101228</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>92596925.28161991</v>
+        <v>92621050.53762308</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>92356755.88321231</v>
+        <v>92381272.2296284</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>93122839.73044476</v>
+        <v>93149337.16289078</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3472,7 +3472,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>93037965.28973736</v>
+        <v>93066516.05099003</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3480,7 +3480,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>92659615.91596729</v>
+        <v>92690654.76752217</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3488,7 +3488,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>92280162.49175754</v>
+        <v>92316040.46498616</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3496,7 +3496,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>92038861.78344005</v>
+        <v>92074999.98139429</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3504,7 +3504,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>91800311.59471039</v>
+        <v>91838922.50066198</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>92384138.20999859</v>
+        <v>92411839.41017157</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>92816585.52514459</v>
+        <v>92841222.43005915</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>92901520.33981429</v>
+        <v>92928057.53313839</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>92951733.49645588</v>
+        <v>92977561.43242322</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3544,7 +3544,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>92803883.91372135</v>
+        <v>92834104.49437091</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3552,7 +3552,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>91588375.65528162</v>
+        <v>91618200.41881874</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>91862824.48688692</v>
+        <v>91892738.6217165</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>91767389.78566167</v>
+        <v>91797272.84321341</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>92053838.44279197</v>
+        <v>92083814.7792495</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>92155059.76916017</v>
+        <v>92185069.06724739</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>90774469.7298585</v>
+        <v>90804029.45373753</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>90517311.16726176</v>
+        <v>90546787.15023734</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>91014831.38520384</v>
+        <v>91044469.38025519</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>91146401.07135269</v>
+        <v>91176081.91064873</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>91663204.95534401</v>
+        <v>91693054.08623302</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>91780055.14435162</v>
+        <v>91809942.32624036</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>91585109.72290005</v>
+        <v>91614933.4229216</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>91544447.35323609</v>
+        <v>91574257.81199695</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>91298049.72258715</v>
+        <v>91327779.94462568</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>91077924.26265277</v>
+        <v>91107582.80321702</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>90559500.90825443</v>
+        <v>90588990.62986268</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>90431855.89186512</v>
+        <v>90461304.04725493</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>89289377.43908642</v>
+        <v>89318453.55872983</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>89356482.34138876</v>
+        <v>89385580.31301752</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>89095863.36289503</v>
+        <v>89124876.46677338</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>89972776.48794411</v>
+        <v>90002075.14909332</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>89521838.07935655</v>
+        <v>89550989.89729218</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>88968152.96156298</v>
+        <v>88997124.47793093</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>88911987.51983756</v>
+        <v>88940940.74653715</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>89462772.87671217</v>
+        <v>89491905.46070364</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>89400373.11160417</v>
+        <v>89429485.37578733</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>89173386.77441892</v>
+        <v>89202425.12295739</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>90558139.4192746</v>
+        <v>90587628.69752871</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>91566750.47919507</v>
+        <v>91596568.20072754</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>92044552.87526895</v>
+        <v>92074526.18798187</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>92887712.64528053</v>
+        <v>92917960.52384949</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>92331867.3873785</v>
+        <v>92361934.26095349</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>92485830.82498987</v>
+        <v>92515947.83509246</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>91990922.56999277</v>
+        <v>92020878.41857706</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>92428144.16112228</v>
+        <v>92458242.38618694</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>91805946.505896</v>
+        <v>91835842.1190265</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>91921446.46873599</v>
+        <v>91951379.69317962</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>92496648.80116864</v>
+        <v>92526769.33402812</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>92431807.77758668</v>
+        <v>92461907.19566843</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>92203230.98960629</v>
+        <v>92233255.97413023</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>91061198.01916698</v>
+        <v>91090851.113011</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>88761958.4558651</v>
+        <v>88790862.82722333</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>88047380.28968173</v>
+        <v>88076051.96639195</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>88610045.33231543</v>
+        <v>88638900.2348087</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>88648941.3544735</v>
+        <v>88677808.92303553</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>88913433.95270355</v>
+        <v>88942387.65041833</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>89380814.16959399</v>
+        <v>89409920.06461929</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>89837646.28942353</v>
+        <v>89866900.9468857</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>89538013.80685991</v>
+        <v>89567170.89224619</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>89003374.67911059</v>
+        <v>89032357.66504978</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>89446155.79465675</v>
+        <v>89475282.96747527</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>90166950.30900486</v>
+        <v>90196312.20075792</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>89218195.7206012</v>
+        <v>89247248.66068813</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>89901250.19185436</v>
+        <v>89930525.56123915</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>89439597.98226194</v>
+        <v>89468723.0195998</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>89945742.36874126</v>
+        <v>89975032.22652204</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>91233403.06923415</v>
+        <v>91263112.23978947</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>91615075.94870149</v>
+        <v>91644909.40690024</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>91867936.9571376</v>
+        <v>91897852.75678781</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>91920096.06965706</v>
+        <v>91950028.8543579</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>92019687.02411681</v>
+        <v>92049652.23953436</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>92660075.4468824</v>
+        <v>92690249.19786076</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>93863383.02925181</v>
+        <v>93893948.62432447</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>93522084.92261699</v>
+        <v>93552539.37765408</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>93330545.53413452</v>
+        <v>93360937.61644223</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>93504505.54610291</v>
+        <v>93534954.27660628</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>93599307.24326989</v>
+        <v>93629786.8449202</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>92033947.64268975</v>
+        <v>92063917.50192346</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>92191874.86370233</v>
+        <v>92221896.15022677</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>92164882.47608313</v>
+        <v>92194894.97282854</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>93323677.013945</v>
+        <v>93354066.85959341</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>92633842.5167985</v>
+        <v>92664007.72530702</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>93819537.89376855</v>
+        <v>93850089.21114728</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>94708833.12445714</v>
+        <v>94739674.03120546</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>94921990.86515795</v>
+        <v>94952901.18441813</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>96059074.328748</v>
+        <v>96090354.92693475</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>96335753.3363229</v>
+        <v>96367124.03203478</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>95689934.88941664</v>
+        <v>95721095.28133909</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>96281061.22454569</v>
+        <v>96312414.11036313</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>96744937.32128194</v>
+        <v>96776441.26333112</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>96365572.62397358</v>
+        <v>96396953.03001384</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>95343842.22916903</v>
+        <v>95374889.9197614</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>95463330.13661841</v>
+        <v>95494416.73715504</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>96634787.3639849</v>
+        <v>96666255.43689229</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>98685816.38847141</v>
+        <v>98717952.35678831</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>97848179.20397916</v>
+        <v>97880042.40481022</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>99262209.42215018</v>
+        <v>99294533.08662188</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>98293596.35912596</v>
+        <v>98325604.60523415</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>98514134.51998459</v>
+        <v>98546214.58195859</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>98304783.6916143</v>
+        <v>98336795.58075629</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>98510140.59293514</v>
+        <v>98542219.35433003</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>98956426.35733899</v>
+        <v>98988650.44686426</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>99520837.63306832</v>
+        <v>99553245.51701853</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>99535729.63100894</v>
+        <v>99568142.36437713</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>100346822.9227576</v>
+        <v>100379499.7798801</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>101808017.6288802</v>
+        <v>101841170.3082485</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>102770070.4096717</v>
+        <v>102803536.3711186</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>102623552.2435995</v>
+        <v>102656970.492991</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>102776162.8532548</v>
+        <v>102809630.79864</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>102992727.177004</v>
+        <v>103026265.644218</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>103372565.3282197</v>
+        <v>103406227.4856178</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>103221432.2164464</v>
+        <v>103255045.1589819</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>104071240.0396324</v>
+        <v>104105129.7128905</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>104312859.3208623</v>
+        <v>104346827.674825</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>104289527.9940797</v>
+        <v>104323488.7504483</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>104954933.9170467</v>
+        <v>104989111.3556544</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>105750220.5732264</v>
+        <v>105784656.9883286</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>104376673.6626643</v>
+        <v>104410662.7970769</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>105511132.5658276</v>
+        <v>105545491.1245071</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>105097304.220982</v>
+        <v>105131528.0209386</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>104373386.1125848</v>
+        <v>104407374.1764423</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>103881582.5783358</v>
+        <v>103915410.4916937</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>103900148.4758792</v>
+        <v>103933982.4350208</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>102249570.2829361</v>
+        <v>102282866.7491486</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>102180514.5557411</v>
+        <v>102213788.5347032</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>102080039.1063289</v>
+        <v>102113280.366548</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>102768755.1217393</v>
+        <v>102802220.6548769</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>101703196.1451431</v>
+        <v>101736314.6905294</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>102145529.1351892</v>
+        <v>102178791.7215277</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>101788539.0589752</v>
+        <v>101821685.395358</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>101312695.0440046</v>
+        <v>101345686.4269326</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>101222305.6634649</v>
+        <v>101255267.6120692</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>101451036.4594703</v>
+        <v>101484072.8917833</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>100846325.3097611</v>
+        <v>100879164.8244313</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>100459038.5458925</v>
+        <v>100491751.9448185</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>100165435.4869397</v>
+        <v>100198053.2772064</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>99321138.10117964</v>
+        <v>99353480.95513809</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>98485436.38934039</v>
+        <v>98517507.10607865</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>98897580.87521322</v>
+        <v>98929785.8023439</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>98364262.26332082</v>
+        <v>98396293.52101614</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>98301174.28220047</v>
+        <v>98333184.9959773</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>98780694.27325997</v>
+        <v>98812861.13753346</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>99426709.37330151</v>
+        <v>99459086.60540235</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>99710515.53093055</v>
+        <v>99742985.18143585</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>100149803.9174707</v>
+        <v>100182416.6174859</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>100664023.6802439</v>
+        <v>100696803.830361</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>100093310.4355042</v>
+        <v>100125904.7390283</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>100176919.8486893</v>
+        <v>100209541.3787142</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>100201767.1157595</v>
+        <v>100234396.737028</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>100946905.0415446</v>
+        <v>100979777.3089162</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>100946384.2761001</v>
+        <v>100979256.3738901</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>99993978.33880293</v>
+        <v>100026540.2959045</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>99467075.48804109</v>
+        <v>99499465.86493048</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>100433135.2672005</v>
+        <v>100465840.2310041</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>100161199.6710977</v>
+        <v>100193816.0820167</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4712,7 +4712,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>98748245.75574034</v>
+        <v>98780402.05350518</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>99212449.34792449</v>
+        <v>99244756.80856645</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>99595894.57344277</v>
+        <v>99628326.89887346</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>99686281.25487423</v>
+        <v>99718743.01374976</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>99726950.06125048</v>
+        <v>99759425.06348276</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>99337183.59558645</v>
+        <v>99369531.67458647</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>98300422.14150392</v>
+        <v>98332432.61035432</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>98272952.05776565</v>
+        <v>98304953.58128047</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>97692749.65986109</v>
+        <v>97724562.24674289</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>97989242.70216148</v>
+        <v>98021151.83879443</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>97813191.73289034</v>
+        <v>97845043.54043002</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>97704272.13484804</v>
+        <v>97736088.47389917</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>97544699.01232997</v>
+        <v>97576463.38812031</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>97057159.62781993</v>
+        <v>97088765.24168494</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>97906237.6817411</v>
+        <v>97938119.78868726</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>98232906.74895905</v>
+        <v>98264895.23215236</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>99107805.44787106</v>
+        <v>99140078.83235914</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>99185518.93969376</v>
+        <v>99217817.63073961</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4856,7 +4856,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>99412062.57695808</v>
+        <v>99444435.03948821</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>99291200.67458518</v>
+        <v>99323533.77974452</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>98939498.96749498</v>
+        <v>98971717.54479885</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>97632744.91568884</v>
+        <v>97664537.96267495</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>96776279.10169296</v>
+        <v>96807793.2498538</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>96161165.53664438</v>
+        <v>96192479.37972833</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>96677370.43837653</v>
+        <v>96708852.37800135</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>95886050.77029271</v>
+        <v>95917275.02522977</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>96318653.7134335</v>
+        <v>96350018.84083821</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>96573615.45801136</v>
+        <v>96605063.61094949</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>95780592.00011985</v>
+        <v>95811781.91354947</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>96135222.86649083</v>
+        <v>96166528.26162498</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>96314337.91084871</v>
+        <v>96345701.63285896</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>96282243.08856536</v>
+        <v>96313596.35924405</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>96361239.22247374</v>
+        <v>96392618.21738869</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>96769605.66652066</v>
+        <v>96801117.64154953</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>95965939.8453099</v>
+        <v>95997190.11525984</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>94179318.84175809</v>
+        <v>94209987.31790966</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>92462972.49728373</v>
+        <v>92493082.06381921</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>93966151.86125657</v>
+        <v>93996750.92188741</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>94615627.50861336</v>
+        <v>94646438.06396139</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>94895499.5746295</v>
+        <v>94926401.26728755</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>96430494.64213389</v>
+        <v>96461896.18932691</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>96559049.01374994</v>
+        <v>96590492.42328312</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>96555534.11749862</v>
+        <v>96586976.38244388</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>97163540.05115956</v>
+        <v>97195180.30665842</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>97401950.22083947</v>
+        <v>97433668.11203045</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>98084998.00267069</v>
+        <v>98116938.32098116</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>98041748.2742182</v>
+        <v>98073674.5087226</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>98401196.99869701</v>
+        <v>98433240.28378926</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>98605812.89260304</v>
+        <v>98637922.80864714</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>98446085.79403594</v>
+        <v>98478143.69667865</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>98342936.43111351</v>
+        <v>98374960.74428234</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>99405853.30524015</v>
+        <v>99438223.74578819</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>99607744.01102518</v>
+        <v>99640180.19509706</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>100991461.1936908</v>
+        <v>101024347.9702912</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>101039285.5499049</v>
+        <v>101072187.8999895</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>101778860.0543174</v>
+        <v>101812003.2388371</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>101315438.628062</v>
+        <v>101348430.9044085</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>101762488.9668251</v>
+        <v>101795626.8202772</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>101123065.8951015</v>
+        <v>101155995.527349</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>102074870.5631351</v>
+        <v>102108110.1402741</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>102123531.6828249</v>
+        <v>102156787.105931</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>102352436.0045945</v>
+        <v>102385765.9679162</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5208,7 +5208,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>102320927.5780905</v>
+        <v>102354247.281034</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>102780395.2906257</v>
+        <v>102813864.6142584</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>102276727.5937442</v>
+        <v>102310032.9034412</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>102313770.3684294</v>
+        <v>102347087.740705</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>102633620.5374119</v>
+        <v>102667042.0654343</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>102292179.9390022</v>
+        <v>102325490.2805882</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>103162345.8160333</v>
+        <v>103195939.5177219</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>102702700.7590109</v>
+        <v>102736144.78226</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>103415411.9226457</v>
+        <v>103449088.0325737</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5280,7 +5280,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>103887312.8431782</v>
+        <v>103921142.6225349</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>102840363.2821715</v>
+        <v>102873852.1337318</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>103958439.1514539</v>
+        <v>103992292.0923234</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>103751542.5759219</v>
+        <v>103785328.1431601</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>103853753.1030191</v>
+        <v>103887571.9540096</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>103200275.613889</v>
+        <v>103233881.6670058</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>103515710.2463305</v>
+        <v>103549419.0173223</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>102951565.5875894</v>
+        <v>102985090.6509772</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>102815509.8766123</v>
+        <v>102848990.63493</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>103775099.9572309</v>
+        <v>103808893.1956754</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>103836648.9743388</v>
+        <v>103870462.2555548</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>102856766.2899166</v>
+        <v>102890260.4829389</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>101298825.2598673</v>
+        <v>101331812.1262501</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>100564758.1049293</v>
+        <v>100597505.9302859</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>101095936.4380135</v>
+        <v>101128857.2358468</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>99907572.49707128</v>
+        <v>99940106.31704547</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>101428200.1550524</v>
+        <v>101461229.15097</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>100334879.6562926</v>
+        <v>100367552.6242197</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>101014315.9095027</v>
+        <v>101047210.1284941</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5432,7 +5432,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>100495247.3070964</v>
+        <v>100527972.4970137</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5440,7 +5440,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>99670103.59630339</v>
+        <v>99702560.08709945</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>99104220.70693745</v>
+        <v>99136492.92409351</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>98260299.71030596</v>
+        <v>98292297.11372077</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>99313683.11311553</v>
+        <v>99346023.53943777</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5472,7 +5472,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>99875984.86683409</v>
+        <v>99908508.40063824</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5480,7 +5480,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>100218347.5175709</v>
+        <v>100250982.5380679</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>101119253.0034059</v>
+        <v>101152181.3940264</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>102371306.7857943</v>
+        <v>102404642.8941817</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>101767652.2022569</v>
+        <v>101800791.7370608</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5512,7 +5512,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>100235607.4301452</v>
+        <v>100268248.0711459</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>101163113.4852947</v>
+        <v>101196056.1586066</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>100814080.5644336</v>
+        <v>100846909.5789514</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>101491045.7667913</v>
+        <v>101524095.2277023</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>102800203.5535317</v>
+        <v>102833679.3275109</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>103042234.0794461</v>
+        <v>103075788.6680472</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>103917943.0239439</v>
+        <v>103951782.7776875</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>104125363.3392535</v>
+        <v>104159270.6371785</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>104620497.1251245</v>
+        <v>104654565.6580095</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>104718027.9333445</v>
+        <v>104752128.2260818</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>104875290.82944</v>
+        <v>104909442.3331379</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>105675384.1226339</v>
+        <v>105709796.1680557</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>105902690.6906579</v>
+        <v>105937176.756004</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>107091758.2198874</v>
+        <v>107126631.4922086</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>107456391.5868321</v>
+        <v>107491383.5980639</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>108297733.7389594</v>
+        <v>108332999.7241596</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>109510457.5952377</v>
+        <v>109546118.4908399</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>110136049.7817817</v>
+        <v>110171914.3947105</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>110019250.9738711</v>
+        <v>110055077.5525319</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>108431175.1052289</v>
+        <v>108466484.5441662</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>109036582.1459517</v>
+        <v>109072088.7291413</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>107586243.4219571</v>
+        <v>107621277.7180339</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>104819282.6428771</v>
+        <v>104853415.908115</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>103540607.1076102</v>
+        <v>103574323.9859955</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>101058834.7223553</v>
+        <v>101091743.4384163</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>101828017.8199847</v>
+        <v>101861177.0121989</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>100533691.448311</v>
+        <v>100566429.157147</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>100562504.8466245</v>
+        <v>100595251.9382319</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>100137104.8387561</v>
+        <v>100169713.4034537</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>100507456.0946807</v>
+        <v>100540185.2602577</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>102248735.8182857</v>
+        <v>102282032.0127638</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>101164566.3039557</v>
+        <v>101197509.4503623</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>102084305.362902</v>
+        <v>102117548.0123814</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>101543289.1890037</v>
+        <v>101576355.66242</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5784,7 +5784,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>102996315.1957967</v>
+        <v>103029854.8314102</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>103533331.1037183</v>
+        <v>103567045.6127516</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>103086264.1282249</v>
+        <v>103119833.054735</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>101711347.3027185</v>
+        <v>101744468.5024411</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>100969589.6850081</v>
+        <v>101002469.3393884</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>100322715.9551861</v>
+        <v>100355384.9621355</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>100657736.7685378</v>
+        <v>100690514.8713901</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>99157383.11272004</v>
+        <v>99189672.64163828</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>100172822.3039054</v>
+        <v>100205442.4996091</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>101640805.8293303</v>
+        <v>101673904.0579854</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>102724267.8228296</v>
+        <v>102757718.8691596</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>102211272.1080346</v>
+        <v>102244556.1028608</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>101147981.6277744</v>
+        <v>101180919.3735606</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>101881970.5173988</v>
+        <v>101915147.2787251</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>101752559.1981838</v>
+        <v>101785693.8181143</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>101275658.1422522</v>
+        <v>101308637.4645139</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>101567891.6554497</v>
+        <v>101600966.140393</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>101651608.429977</v>
+        <v>101684710.1763821</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>101389435.0663241</v>
+        <v>101422451.43881</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>98322011.35765089</v>
+        <v>98354028.85679591</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>99566009.46479283</v>
+        <v>99598432.05846126</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>100305403.8129073</v>
+        <v>100338067.1823449</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>98813504.19320129</v>
+        <v>98845681.74167022</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>99938892.56830671</v>
+        <v>99971436.58732316</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5976,7 +5976,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>100926589.3964664</v>
+        <v>100959455.0482679</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>101646950.0766547</v>
+        <v>101680050.3061174</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>102147690.0975174</v>
+        <v>102180953.3875498</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6000,7 +6000,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>101053421.351111</v>
+        <v>101086328.3043663</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6008,7 +6008,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>101145296.6838006</v>
+        <v>101178233.5552639</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>101263967.1273148</v>
+        <v>101296942.6425239</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>101701877.9927665</v>
+        <v>101734996.1089108</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>102103619.8698528</v>
+        <v>102136868.8088924</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>102657985.1055571</v>
+        <v>102691414.5676375</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>101986866.6349168</v>
+        <v>102020077.5545288</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>102141312.5255377</v>
+        <v>102174573.7387828</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>102729752.0333132</v>
+        <v>102763204.8655171</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>102884356.1909229</v>
+        <v>102917859.3682979</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>103025480.3146846</v>
+        <v>103059029.4476035</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>103220976.5731792</v>
+        <v>103254589.3673393</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>103130231.8560884</v>
+        <v>103163815.1002133</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>102218776.2317211</v>
+        <v>102252062.670184</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>103085666.1715073</v>
+        <v>103119234.9032992</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>102778839.3963352</v>
+        <v>102812308.2133077</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>103443007.5834779</v>
+        <v>103476692.6796342</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>103949635.950361</v>
+        <v>103983486.0245631</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>104240406.3464737</v>
+        <v>104274351.1069092</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>104243199.9947701</v>
+        <v>104277145.6649269</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>103164829.3997606</v>
+        <v>103198423.9102013</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>102221057.2177011</v>
+        <v>102254344.3989424</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>100586394.8572137</v>
+        <v>100619149.7283445</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>101246014.054926</v>
+        <v>101278983.7239113</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>101407942.7493719</v>
+        <v>101440965.1486845</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>102729549.1665434</v>
+        <v>102763001.9326859</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>102424356.4638284</v>
+        <v>102457709.8472695</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>102491404.5505215</v>
+        <v>102524779.7674465</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>102185795.9845102</v>
+        <v>102219071.6833124</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>101446593.5813096</v>
+        <v>101479628.5668475</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>102445789.0746474</v>
+        <v>102479149.4373862</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>102670190.0354235</v>
+        <v>102703623.4719072</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>101307629.9098034</v>
+        <v>101340619.6433252</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>101147362.8318221</v>
+        <v>101180300.3761041</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>99944995.45697145</v>
+        <v>99977541.46332757</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>100648747.8009293</v>
+        <v>100681522.9766216</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>99754447.50576861</v>
+        <v>99786931.46224616</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>98733354.85696012</v>
+        <v>98765506.3056649</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>99458335.13774852</v>
+        <v>99490722.66843738</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>99834925.38126315</v>
+        <v>99867435.54449004</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>99487891.33720395</v>
+        <v>99520288.49254936</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>99100504.53109692</v>
+        <v>99132775.53812046</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>100105686.5054851</v>
+        <v>100138284.8391424</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>99770133.62081708</v>
+        <v>99802622.68530826</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>100562283.5416534</v>
+        <v>100595030.5611952</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>100896437.947817</v>
+        <v>100929293.7811255</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>99273164.90324385</v>
+        <v>99305492.13524941</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>98665885.21322483</v>
+        <v>98698014.69117013</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>96296304.42292601</v>
+        <v>96327662.27252604</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>93131273.74269806</v>
+        <v>93161600.93430302</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>94267609.1324067</v>
+        <v>94298306.35933608</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>92687741.61290367</v>
+        <v>92717924.37306963</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>93152827.57305595</v>
+        <v>93183161.78343257</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>93431414.47032015</v>
+        <v>93461839.39950553</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>93116338.45719559</v>
+        <v>93146660.78528646</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>92402734.41850309</v>
+        <v>92432824.36916</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>92039495.75633676</v>
+        <v>92069467.42225362</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>92502186.64536037</v>
+        <v>92532308.98155889</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>89392504.0106332</v>
+        <v>89421613.71232879</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>88961516.98270613</v>
+        <v>88990486.3381394</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>88939712.26555037</v>
+        <v>88968674.52051345</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>88502984.68347944</v>
+        <v>88531804.7228308</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>90253184.65157375</v>
+        <v>90282574.62460738</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>90516786.25877918</v>
+        <v>90546262.07082403</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>90898605.62339622</v>
+        <v>90928205.77078582</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>90032939.69426635</v>
+        <v>90062257.94691272</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>90835695.75133239</v>
+        <v>90865275.41280286</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>91533619.59554929</v>
+        <v>91563426.52836804</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>91509226.70949431</v>
+        <v>91539025.69903363</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>90996954.31774645</v>
+        <v>91026586.49132423</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>90261090.51926187</v>
+        <v>90290483.0667558</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>89077164.40186493</v>
+        <v>89106171.41662893</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>89452542.75094876</v>
+        <v>89481672.00361051</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>88523531.65554452</v>
+        <v>88552358.38579503</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>89211544.79255749</v>
+        <v>89240595.56684169</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -6600,7 +6600,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>88774440.35473301</v>
+        <v>88803348.79068656</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>89465527.17000693</v>
+        <v>89494660.65090425</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>89426607.68177426</v>
+        <v>89455728.48896135</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>89133745.90597178</v>
+        <v>89162771.34589037</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>89437055.21866515</v>
+        <v>89466179.42797959</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>90504625.79314722</v>
+        <v>90534097.64526801</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>88985212.60642987</v>
+        <v>89014189.67808664</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>90193664.19583677</v>
+        <v>90223034.78667803</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>90836043.41640472</v>
+        <v>90865623.19108856</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>91036905.70920511</v>
+        <v>91066550.89252125</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>90628143.14941077</v>
+        <v>90657655.22362217</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>90567953.51044148</v>
+        <v>90597445.98454821</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>90764776.41727608</v>
+        <v>90794332.98463276</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>88403463.57957138</v>
+        <v>88432251.2109521</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>89548510.63837616</v>
+        <v>89577671.14194208</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>89049504.76819645</v>
+        <v>89078502.77590001</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6728,7 +6728,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>89431442.76304907</v>
+        <v>89460565.14472806</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>89444456.04635412</v>
+        <v>89473582.66566803</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>89829953.04142281</v>
+        <v>89859205.19366203</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>88765311.44409074</v>
+        <v>88794216.90731332</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>89239853.49683963</v>
+        <v>89268913.48954707</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>89818970.15864015</v>
+        <v>89848218.73442242</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>90316665.30807304</v>
+        <v>90346075.95289564</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>90482617.73972599</v>
+        <v>90512082.42516232</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>90721189.35772048</v>
+        <v>90750731.73142286</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>90359721.92370422</v>
+        <v>90389146.58944781</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>91184163.23736148</v>
+        <v>91213856.37349831</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>90606464.76871863</v>
+        <v>90635969.78359991</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>90766150.82453564</v>
+        <v>90795707.83945318</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>90292456.56535363</v>
+        <v>90321859.3268611</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>89798593.46372262</v>
+        <v>89827835.40405467</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>90217607.2804535</v>
+        <v>90246985.66810119</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>90156076.47182181</v>
+        <v>90185434.82262745</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>90741863.97359037</v>
+        <v>90771413.07975768</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>91279758.18778649</v>
+        <v>91309482.45338459</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>92167163.68213646</v>
+        <v>92197176.92173199</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>92996830.8123869</v>
+        <v>93027114.2241063</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>92208166.58098319</v>
+        <v>92238193.17272907</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>92269702.50555776</v>
+        <v>92299749.13581166</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>91607242.24579708</v>
+        <v>91637073.15303527</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>91314681.70132408</v>
+        <v>91344417.33938649</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>92077882.65003419</v>
+        <v>92107866.81622764</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>92773880.91330016</v>
+        <v>92804091.72379728</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>93046094.41265687</v>
+        <v>93076393.86653468</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>93080535.36378182</v>
+        <v>93110846.03298271</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>91902372.42939961</v>
+        <v>91932299.44258876</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>90524545.7325681</v>
+        <v>90554024.07140164</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>90004925.68826482</v>
+        <v>90034234.81845325</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>88926195.78292456</v>
+        <v>88955153.63639128</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>87281337.94690609</v>
+        <v>87309760.17021604</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>82719452.19641845</v>
+        <v>82746388.89099379</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>83961980.47507919</v>
+        <v>83989321.78554422</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>83119660.59896408</v>
+        <v>83146727.61707543</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>83591106.5312885</v>
+        <v>83618327.07066663</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>84317717.51368552</v>
+        <v>84345174.66606806</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>83450788.73482652</v>
+        <v>83477963.58123244</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>83342805.29339691</v>
+        <v>83369944.97616355</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7056,7 +7056,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>83215331.99537052</v>
+        <v>83242430.16783693</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>80543313.60981867</v>
+        <v>80569541.66840932</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>80736018.40305763</v>
+        <v>80762309.21387914</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>79169717.58438817</v>
+        <v>79195498.34629557</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>76985288.9317937</v>
+        <v>77010358.3581461</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>74485136.3676102</v>
+        <v>74509391.64633201</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>75460502.08576621</v>
+        <v>75485074.98178054</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>76398671.8473016</v>
+        <v>76423550.24814773</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7120,7 +7120,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>76211882.79480052</v>
+        <v>76236700.36981274</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>78378488.75207008</v>
+        <v>78404011.85886942</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>77423685.3910702</v>
+        <v>77448897.5764861</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7144,7 +7144,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>78461801.3570931</v>
+        <v>78487351.59374082</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>76513580.99215083</v>
+        <v>76538496.81191663</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>77184013.23372295</v>
+        <v>77209147.37249409</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>77179621.42668159</v>
+        <v>77204754.13530827</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>76536554.21115336</v>
+        <v>76561477.51189934</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>76603850.53378418</v>
+        <v>76628795.74884948</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>77070184.14535245</v>
+        <v>77095281.2169126</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>78175793.53904551</v>
+        <v>78201250.64034192</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7208,7 +7208,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>79512843.25365488</v>
+        <v>79538735.75072382</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>80772488.02064814</v>
+        <v>80798790.70740597</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>80737491.96600479</v>
+        <v>80763783.25667611</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>81417114.78912982</v>
+        <v>81443627.39161991</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>81196317.86907767</v>
+        <v>81222758.57143977</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7248,7 +7248,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>80424822.01493043</v>
+        <v>80451011.48801531</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>81440935.77260596</v>
+        <v>81467456.13214158</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7264,7 +7264,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>81911869.59566462</v>
+        <v>81938543.30970414</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>82352433.30352196</v>
+        <v>82379250.48236603</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>82738350.77640754</v>
+        <v>82765293.62510099</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>82765733.14174587</v>
+        <v>82792684.90721029</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>83982086.68946965</v>
+        <v>84009434.54730584</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>83343786.26880473</v>
+        <v>83370926.27101539</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>82464024.63747968</v>
+        <v>82490878.15483421</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7320,7 +7320,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>81363713.88550347</v>
+        <v>81390209.0985671</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>81003308.71617377</v>
+        <v>81029686.56719361</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>79853082.44199035</v>
+        <v>79879085.73426957</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7344,7 +7344,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>80053119.03198555</v>
+        <v>80079187.46401587</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>81531582.24371125</v>
+        <v>81558132.12128936</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>82273077.99008296</v>
+        <v>82299869.32772782</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>82160950.06901076</v>
+        <v>82187704.89341138</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>82306334.68224052</v>
+        <v>82333136.84956732</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>81613075.97633058</v>
+        <v>81639652.39146096</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>82085394.76769601</v>
+        <v>82112124.98833025</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>81517601.64202724</v>
+        <v>81544146.96697369</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>81450530.04040654</v>
+        <v>81477053.52421163</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>80991641.10656431</v>
+        <v>81018015.15815333</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>80126359.34886347</v>
+        <v>80152451.63081053</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>80261216.2174997</v>
+        <v>80287352.41412686</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>80883305.23156284</v>
+        <v>80909644.00474638</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>79048938.52813387</v>
+        <v>79074679.95964846</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>78352456.06707314</v>
+        <v>78377970.69661029</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>79048639.03089795</v>
+        <v>79074380.36488453</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7472,7 +7472,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>80098892.94398877</v>
+        <v>80124976.28179826</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>80041928.40746678</v>
+        <v>80067993.19539133</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>81103941.19776043</v>
+        <v>81130351.81865905</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>80641440.19396183</v>
+        <v>80667700.20641288</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>81166700.81699495</v>
+        <v>81193131.87488453</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>80666288.96964653</v>
+        <v>80692557.07383251</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>81227480.15853836</v>
+        <v>81253931.00856286</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>80907177.4515125</v>
+        <v>80933523.99842617</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>81178866.777275</v>
+        <v>81205301.79687789</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>81994989.95731744</v>
+        <v>82021690.73860337</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>81497501.20211837</v>
+        <v>81524039.98157407</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>81335099.06811032</v>
+        <v>81361584.96306828</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>81848154.94821851</v>
+        <v>81874807.91427249</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>81685965.24115248</v>
+        <v>81712565.39188325</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>82601802.67505983</v>
+        <v>82628701.05834152</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>82605560.26253267</v>
+        <v>82632459.86943208</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>82248821.30465738</v>
+        <v>82275604.74337512</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>82272584.10255897</v>
+        <v>82299375.2793747</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>82909313.99369612</v>
+        <v>82936312.51471142</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>82311094.11142719</v>
+        <v>82337897.82861064</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>82402176.9708526</v>
+        <v>82429010.34818369</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>81790559.35918301</v>
+        <v>81817193.56985663</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>82091206.94247563</v>
+        <v>82117939.05578172</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>82421987.88107044</v>
+        <v>82448827.7096101</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>82884847.15964156</v>
+        <v>82911837.7132971</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>83876606.48167732</v>
+        <v>83903919.99102516</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>83603114.21895845</v>
+        <v>83630338.66851014</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>84257590.16019779</v>
+        <v>84285027.73275827</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>84611526.74884164</v>
+        <v>84639079.5770226</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>85414475.2783929</v>
+        <v>85442289.5780745</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>85152212.20192446</v>
+        <v>85179941.09847292</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -7720,7 +7720,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>85136094.25591882</v>
+        <v>85163817.90383254</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>85593308.91676919</v>
+        <v>85621181.45169011</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>85566578.33332694</v>
+        <v>85594442.1637226</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -7744,7 +7744,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>85836549.89229998</v>
+        <v>85864501.6360127</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>85356260.30034725</v>
+        <v>85384055.64295116</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>85860036.20604552</v>
+        <v>85887995.5978222</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>86132660.24215887</v>
+        <v>86160708.41100311</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>86114881.38352408</v>
+        <v>86142923.76287535</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -7784,7 +7784,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>85856827.34863696</v>
+        <v>85884785.69548394</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -7792,7 +7792,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>85184497.73057301</v>
+        <v>85212237.14055455</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>84986778.84115794</v>
+        <v>85014453.86612248</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -7808,7 +7808,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>85649829.31841998</v>
+        <v>85677720.25859815</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>85721883.57009822</v>
+        <v>85749797.97396383</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -7824,7 +7824,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>86501309.64206927</v>
+        <v>86529477.85760173</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -7832,7 +7832,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>86958718.34769851</v>
+        <v>86987035.51342677</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -7840,7 +7840,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>87310317.16304803</v>
+        <v>87338748.82312617</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>86772510.13260339</v>
+        <v>86800766.66164123</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>86509756.48999944</v>
+        <v>86537927.45615657</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -7864,7 +7864,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>85093106.20435868</v>
+        <v>85120815.85367855</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -7872,7 +7872,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>84551985.64960133</v>
+        <v>84579519.08886753</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -7880,7 +7880,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>82845091.83222409</v>
+        <v>82872069.43998739</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -7888,7 +7888,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>83210827.40178987</v>
+        <v>83237924.10738413</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -7896,7 +7896,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>82880161.19369139</v>
+        <v>82907150.22141282</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -7904,7 +7904,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>81924506.67427047</v>
+        <v>81951184.50343794</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>82334663.16259313</v>
+        <v>82361474.55478305</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>83298665.95354238</v>
+        <v>83325791.26281057</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -7928,7 +7928,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>83371435.73736311</v>
+        <v>83398584.74332401</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>84187792.88942079</v>
+        <v>84215207.73325522</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -7944,7 +7944,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>84275701.73973048</v>
+        <v>84303145.21013081</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -7952,7 +7952,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>84216951.58909282</v>
+        <v>84244375.92814229</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -7960,7 +7960,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>84693382.2681132</v>
+        <v>84720961.75165826</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -7968,7 +7968,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>85069925.30672652</v>
+        <v>85097627.40743788</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>85724373.97837412</v>
+        <v>85752289.19321422</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>86225453.31095268</v>
+        <v>86253531.69685568</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -7992,7 +7992,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>87091606.93392023</v>
+        <v>87119967.37337869</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8000,7 +8000,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>88175091.32250294</v>
+        <v>88203804.58692917</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -8008,7 +8008,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>87682000.67525183</v>
+        <v>87710553.37004404</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -8016,7 +8016,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>88027041.32866837</v>
+        <v>88055706.38221601</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>86665632.54130132</v>
+        <v>86693854.26680794</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -8032,7 +8032,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>87186196.52530371</v>
+        <v>87214587.76683916</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -8040,7 +8040,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>87299495.86163548</v>
+        <v>87327923.9978739</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -8048,7 +8048,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>87128650.2136206</v>
+        <v>87157022.71582226</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8056,7 +8056,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>85898112.37594053</v>
+        <v>85926084.16680993</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>85354433.57434347</v>
+        <v>85382228.32209377</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -8072,7 +8072,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>84714783.79007754</v>
+        <v>84742370.24279667</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -8080,7 +8080,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>85811278.81873648</v>
+        <v>85839222.3331975</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -8088,7 +8088,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>85018954.9748795</v>
+        <v>85046640.47765379</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -8096,7 +8096,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>85654570.02423568</v>
+        <v>85682462.50817338</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -8104,7 +8104,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>84787636.41711447</v>
+        <v>84815246.59350333</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>83816087.75062273</v>
+        <v>83843381.55270061</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>83141925.90520728</v>
+        <v>83169000.17377467</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -8128,7 +8128,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>81152819.46844167</v>
+        <v>81179246.00602025</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>80843436.53338113</v>
+        <v>80869762.32375447</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>78949415.58711532</v>
+        <v>78975124.61006099</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -8152,7 +8152,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>79684421.19090849</v>
+        <v>79710369.56047621</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>80736314.84981304</v>
+        <v>80762605.7571692</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8168,7 +8168,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>80112092.52526835</v>
+        <v>80138180.16137862</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8176,7 +8176,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>79444849.67353685</v>
+        <v>79470720.02923211</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -8184,7 +8184,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>78899364.58850649</v>
+        <v>78925057.312886</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8192,7 +8192,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>78959004.72509761</v>
+        <v>78984716.8706423</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8200,7 +8200,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>78894268.68957654</v>
+        <v>78919959.75453171</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>78647712.51237649</v>
+        <v>78673323.28898033</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8216,7 +8216,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>78786175.58204922</v>
+        <v>78811831.44765353</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>78467857.45767625</v>
+        <v>78493409.66642757</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -8232,7 +8232,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>79229630.24104135</v>
+        <v>79255430.51285712</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>77662153.60419023</v>
+        <v>77687443.44419949</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8248,7 +8248,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>77383671.92273881</v>
+        <v>77408871.07820168</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8256,7 +8256,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>77488084.03951496</v>
+        <v>77513317.1956539</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>77627624.08247995</v>
+        <v>77652902.67832406</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8272,7 +8272,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>77697081.565136</v>
+        <v>77722382.77905779</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8280,7 +8280,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>77803512.04902257</v>
+        <v>77828847.92087984</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8288,7 +8288,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>78171120.35939996</v>
+        <v>78196575.93892595</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -8296,7 +8296,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>78755522.45743261</v>
+        <v>78781168.34117857</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -8304,7 +8304,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>79631920.76235239</v>
+        <v>79657852.0357236</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>79505116.014906</v>
+        <v>79531005.99568327</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>81199238.68282753</v>
+        <v>81225680.33632104</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -8328,7 +8328,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>79582959.57743841</v>
+        <v>79608874.90712956</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -8336,7 +8336,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>79153072.34271087</v>
+        <v>79178847.6842754</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -8344,7 +8344,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>79423993.1422032</v>
+        <v>79449856.70619473</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -8352,7 +8352,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>79480875.0864909</v>
+        <v>79506757.17347209</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>80015727.63591716</v>
+        <v>80041783.89184391</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -8368,7 +8368,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>79258868.1855832</v>
+        <v>79284677.97841926</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>80226694.90963984</v>
+        <v>80252819.86477661</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -8384,7 +8384,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>79667199.11979173</v>
+        <v>79693141.88117832</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -8392,7 +8392,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>79278539.07709299</v>
+        <v>79304355.27554204</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -8400,7 +8400,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>79417313.94749305</v>
+        <v>79443175.33647707</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -8408,7 +8408,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>78944469.0216157</v>
+        <v>78970176.43376587</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -8416,7 +8416,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>79123648.54297981</v>
+        <v>79149414.30300236</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -8424,7 +8424,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>79176144.53653319</v>
+        <v>79201927.39130808</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -8432,7 +8432,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>78512237.8575744</v>
+        <v>78537804.51832278</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -8440,7 +8440,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>78095206.03502145</v>
+        <v>78120636.89386913</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -8448,7 +8448,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>78787411.79184462</v>
+        <v>78813068.0600073</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -8456,7 +8456,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>76624961.98533478</v>
+        <v>76649914.07511586</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -8464,7 +8464,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>75524189.72723641</v>
+        <v>75548783.36244211</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -8472,7 +8472,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>75334152.27580391</v>
+        <v>75358684.0273698</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -8480,7 +8480,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>76533902.69053344</v>
+        <v>76558825.12784046</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -8488,7 +8488,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>76640655.94790496</v>
+        <v>76665613.14825514</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -8496,7 +8496,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>75916452.45405698</v>
+        <v>75941173.82537538</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -8504,7 +8504,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>76874827.33267392</v>
+        <v>76899860.78840183</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -8512,7 +8512,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>75543014.71518725</v>
+        <v>75567614.48054659</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -8520,7 +8520,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>75410946.56613861</v>
+        <v>75435503.32493421</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -8528,7 +8528,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>76122651.19782062</v>
+        <v>76147439.71552879</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8536,7 +8536,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>75930596.38580111</v>
+        <v>75955322.36293782</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -8544,7 +8544,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>76147962.9161652</v>
+        <v>76172759.67636061</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -8552,7 +8552,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>75421495.7832174</v>
+        <v>75446055.97725137</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>74076591.4957123</v>
+        <v>74100713.73621705</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>73472956.2270139</v>
+        <v>73496881.90022479</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>71722364.40456359</v>
+        <v>71745720.01648909</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>71928160.00004199</v>
+        <v>71951582.62707645</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>71749431.72866158</v>
+        <v>71772796.1547683</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -8600,7 +8600,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>71096977.79178858</v>
+        <v>71120129.75333036</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -8608,7 +8608,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>70091955.55713855</v>
+        <v>70114780.24406405</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -8616,7 +8616,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>67377177.71220325</v>
+        <v>67399118.36109772</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>66610491.38982929</v>
+        <v>66632182.3756185</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>66150493.65495151</v>
+        <v>66172034.84745556</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -8640,7 +8640,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>67428635.87142856</v>
+        <v>67450593.27711579</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>67194963.57246481</v>
+        <v>67216844.88529624</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>66951042.50240002</v>
+        <v>66972844.38497422</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>66569553.74238332</v>
+        <v>66591231.39727058</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>67045088.13471783</v>
+        <v>67066920.64223464</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -8680,7 +8680,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>65606233.96384542</v>
+        <v>65627597.92407002</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -8688,7 +8688,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>66566782.36629657</v>
+        <v>66588459.1187152</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -8696,7 +8696,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>67184614.50084606</v>
+        <v>67206492.44361429</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>67873426.50408624</v>
+        <v>67895528.75103033</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>67845626.68595679</v>
+        <v>67867719.88019089</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>67353921.26222716</v>
+        <v>67375854.33791034</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -8728,7 +8728,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>66028369.20249757</v>
+        <v>66049870.62649509</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -8736,7 +8736,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>65760191.3658738</v>
+        <v>65781605.46066052</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>66451923.83228568</v>
+        <v>66473563.18226548</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>66630395.00523432</v>
+        <v>66652092.47242051</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -8760,7 +8760,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>67932140.3960069</v>
+        <v>67954261.76249459</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>68144558.54886165</v>
+        <v>68166749.08702247</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>68509425.18725078</v>
+        <v>68531734.54028447</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>68920902.6042878</v>
+        <v>68943345.95049015</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>68780699.95427121</v>
+        <v>68803097.64499757</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -8800,7 +8800,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>68503226.53470652</v>
+        <v>68525533.86921605</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -8808,7 +8808,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>68475485.45113106</v>
+        <v>68497783.75205691</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -8816,7 +8816,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>68776964.46395151</v>
+        <v>68799360.93825585</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -8824,7 +8824,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>69308501.21703644</v>
+        <v>69331070.78053315</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>70590845.06023669</v>
+        <v>70613832.20513086</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>70896557.44856143</v>
+        <v>70919644.14538702</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -8848,7 +8848,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>71022530.35595569</v>
+        <v>71045658.07449551</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -8856,7 +8856,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>70833082.73547888</v>
+        <v>70856148.76245096</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -8864,7 +8864,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>71340082.41423717</v>
+        <v>71363313.54016882</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -8872,7 +8872,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>70847244.47074173</v>
+        <v>70870315.10932967</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>71192432.09051044</v>
+        <v>71215615.13571177</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -8888,7 +8888,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>69997223.04468329</v>
+        <v>70020016.88299114</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>69719908.09822072</v>
+        <v>69742611.63191682</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -8904,7 +8904,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>69111089.08913574</v>
+        <v>69133594.36750901</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -8912,7 +8912,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>69249977.42077687</v>
+        <v>69272527.92663257</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>70739843.18580998</v>
+        <v>70762878.85033156</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -8928,7 +8928,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>69486405.96154058</v>
+        <v>69509033.45779237</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -8936,7 +8936,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>68861967.37860586</v>
+        <v>68884391.53318962</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>69448127.83264838</v>
+        <v>69470742.8640417</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -8952,7 +8952,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>69866097.86083549</v>
+        <v>69888848.99964602</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -8960,7 +8960,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>68939180.16919181</v>
+        <v>68961629.46728538</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -8968,7 +8968,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>69017554.82097456</v>
+        <v>69040029.64092545</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>70389687.20790458</v>
+        <v>70412608.84792069</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -8984,7 +8984,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>70800751.35873173</v>
+        <v>70823806.8573408</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -8992,7 +8992,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>71576774.67002396</v>
+        <v>71600082.87222768</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -9000,7 +9000,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>71421579.53602412</v>
+        <v>71444837.2006117</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>71170023.07585551</v>
+        <v>71193198.82380371</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>70723069.45721248</v>
+        <v>70746099.65955082</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>71189000.7281232</v>
+        <v>71212182.65593851</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>70881901.32492197</v>
+        <v>70904983.24913947</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>71305270.92464349</v>
+        <v>71328490.71459025</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>71273840.63053465</v>
+        <v>71297050.18554622</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>71582905.52224237</v>
+        <v>71606215.7208918</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>71763951.83491199</v>
+        <v>71787320.98933421</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>71853346.01292345</v>
+        <v>71876744.27759247</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>72170356.56964608</v>
+        <v>72193858.06537279</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>72339930.60242516</v>
+        <v>72363487.31810087</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>73818110.80051273</v>
+        <v>73842148.8695759</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>74221505.78470342</v>
+        <v>74245675.21497841</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>74233826.96975249</v>
+        <v>74258000.41228808</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>74609069.5872549</v>
+        <v>74633365.22348872</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>73898667.32161787</v>
+        <v>73922731.6230405</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>73458556.65986948</v>
+        <v>73482477.64401716</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -9144,7 +9144,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>73568670.75839387</v>
+        <v>73592627.6000063</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -9152,7 +9152,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>72529220.83608942</v>
+        <v>72552839.19208157</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9160,7 +9160,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>73046865.4805432</v>
+        <v>73070652.40191285</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9168,7 +9168,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>73801761.84899136</v>
+        <v>73825794.59419537</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -9176,7 +9176,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>73789520.20005718</v>
+        <v>73813548.95890066</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -9184,7 +9184,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>73360449.39360572</v>
+        <v>73384338.43018366</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9192,7 +9192,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>72770481.37662511</v>
+        <v>72794178.29650183</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9200,7 +9200,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>71920287.74037476</v>
+        <v>71943707.80389303</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -9208,7 +9208,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>71612662.76878467</v>
+        <v>71635982.65755947</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -9216,7 +9216,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>72929735.01489529</v>
+        <v>72953483.79399619</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -9224,7 +9224,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>73122765.23847742</v>
+        <v>73146576.875782</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9232,7 +9232,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>74086263.3178557</v>
+        <v>74110388.70788471</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -9240,7 +9240,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>73751656.11372937</v>
+        <v>73775672.54254282</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -9248,7 +9248,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>72930743.9435463</v>
+        <v>72954493.05119389</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -9256,7 +9256,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>73234945.15459214</v>
+        <v>73258793.3220726</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -9264,7 +9264,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>72864419.41468388</v>
+        <v>72888146.92446628</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -9272,7 +9272,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>72223569.49854743</v>
+        <v>72247088.32248873</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9280,7 +9280,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>71422780.46542647</v>
+        <v>71446038.52108373</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9288,7 +9288,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>72154962.58858237</v>
+        <v>72178459.07142572</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -9296,7 +9296,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>71690006.53895156</v>
+        <v>71713351.61388822</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -9304,7 +9304,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>72160263.79883812</v>
+        <v>72183762.00796326</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -9312,7 +9312,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>72221624.41501366</v>
+        <v>72245142.60555951</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -9320,7 +9320,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>72842969.59016916</v>
+        <v>72866690.1150483</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -9328,7 +9328,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>73624005.68598837</v>
+        <v>73647980.54682122</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -9336,7 +9336,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>73611958.49512072</v>
+        <v>73635929.43291622</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -9344,7 +9344,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>74050625.6312063</v>
+        <v>74074739.41620824</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -9352,7 +9352,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>73974607.97905011</v>
+        <v>73998697.00972615</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -9360,7 +9360,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>74374742.98156391</v>
+        <v>74398962.31187402</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -9368,7 +9368,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>74788415.04188244</v>
+        <v>74812769.08002304</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -9376,7 +9376,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>75285398.85158145</v>
+        <v>75309914.72712228</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -9384,7 +9384,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>75391184.23664656</v>
+        <v>75415734.56005339</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -9392,7 +9392,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>75674868.11986169</v>
+        <v>75699510.8218556</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -9400,7 +9400,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>75270390.48378447</v>
+        <v>75294901.4720127</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -9408,7 +9408,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>75651529.52516872</v>
+        <v>75676164.62720181</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -9416,7 +9416,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>74627406.75530133</v>
+        <v>74651708.36283551</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -9424,7 +9424,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>74732372.96887171</v>
+        <v>74756708.75751764</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -9432,7 +9432,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>73349335.93176115</v>
+        <v>73373221.34936051</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -9440,7 +9440,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>74162259.1914584</v>
+        <v>74186409.32872137</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -9448,7 +9448,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>72127512.22484894</v>
+        <v>72150999.7687784</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -9456,7 +9456,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>72958947.43028988</v>
+        <v>72982705.72209775</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -9464,7 +9464,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>73047848.91785224</v>
+        <v>73071636.15946762</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -9472,7 +9472,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>73651529.11880119</v>
+        <v>73675512.94234213</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -9480,7 +9480,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>73958596.78617875</v>
+        <v>73982680.6029831</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -9488,7 +9488,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>74264893.28503253</v>
+        <v>74289076.84397757</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -9496,7 +9496,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>73934319.99987745</v>
+        <v>73958395.911209</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -9504,7 +9504,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>73811405.36169842</v>
+        <v>73835441.247208</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -9512,7 +9512,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>73462417.68499994</v>
+        <v>73486339.92644867</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -9520,7 +9520,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>73024449.19998027</v>
+        <v>73048228.82173072</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -9528,7 +9528,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>73277385.78622633</v>
+        <v>73301247.77403928</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -9536,7 +9536,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>72488065.00506951</v>
+        <v>72511669.95911062</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -9544,7 +9544,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>69832088.26155977</v>
+        <v>69854828.32551229</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -9552,7 +9552,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>69933622.74982491</v>
+        <v>69956395.87738492</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -9560,7 +9560,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>68894710.9892056</v>
+        <v>68917145.80639188</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -9568,7 +9568,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>68163335.39982943</v>
+        <v>68185532.0524686</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -9576,7 +9576,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>67553414.16246749</v>
+        <v>67575412.20085514</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -9584,7 +9584,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>67990822.57020757</v>
+        <v>68012963.04591036</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -9592,7 +9592,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>67808062.11443222</v>
+        <v>67830143.07617007</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -9600,7 +9600,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>70255789.5103559</v>
+        <v>70278667.54803559</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -9608,7 +9608,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>69630333.95089747</v>
+        <v>69653008.31574172</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -9616,7 +9616,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>69656630.07197288</v>
+        <v>69679312.99986443</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -9624,7 +9624,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>70625712.42331719</v>
+        <v>70648710.92239088</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -9632,7 +9632,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>71424679.09217285</v>
+        <v>71447937.76609737</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -9640,7 +9640,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>70797638.15899208</v>
+        <v>70820692.64382133</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -9648,7 +9648,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>70342339.55913839</v>
+        <v>70365245.78090499</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -9656,7 +9656,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>70714481.69961764</v>
+        <v>70737509.10544567</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -9664,7 +9664,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>69805341.40772362</v>
+        <v>69828072.76185259</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -9672,7 +9672,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>69581925.08284394</v>
+        <v>69604583.6838641</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -9680,7 +9680,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>68495912.60682432</v>
+        <v>68518217.55963242</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -9688,7 +9688,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>66804999.35736588</v>
+        <v>66826753.68257013</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -9696,7 +9696,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>63967399.19592585</v>
+        <v>63988229.48734061</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -9704,7 +9704,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>64607271.35247252</v>
+        <v>64628310.0113316</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -9712,7 +9712,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>64159307.23251016</v>
+        <v>64180200.01670058</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -9720,7 +9720,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>63771917.97772101</v>
+        <v>63792684.61279221</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -9728,7 +9728,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>61960350.4525312</v>
+        <v>61980527.17023915</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -9736,7 +9736,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>62307050.75197847</v>
+        <v>62327340.36888763</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -9744,7 +9744,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>62590021.00195264</v>
+        <v>62610402.76506191</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -9752,7 +9752,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>63057833.31131957</v>
+        <v>63078367.41244563</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -9760,7 +9760,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>64302933.9922298</v>
+        <v>64323873.54692047</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -9768,7 +9768,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>62745142.65965632</v>
+        <v>62765574.936455</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -9776,7 +9776,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>60468010.10604239</v>
+        <v>60487700.85926379</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -9784,7 +9784,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>60337521.35753188</v>
+        <v>60357169.61850421</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -9792,7 +9792,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>58816811.86933765</v>
+        <v>58835964.92771938</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -9800,7 +9800,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>55475593.95678577</v>
+        <v>55493658.98370657</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -9808,7 +9808,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>52676794.24700363</v>
+        <v>52693947.87508222</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -9816,7 +9816,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>51691049.38885954</v>
+        <v>51707882.01979093</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -9824,7 +9824,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>50998294.69388413</v>
+        <v>51014901.73674477</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -9832,7 +9832,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>48028598.98501213</v>
+        <v>48044238.97859756</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -9840,7 +9840,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>42571538.96771564</v>
+        <v>42585401.92875239</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -9848,7 +9848,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>45572620.24768046</v>
+        <v>45587460.47836401</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -9856,7 +9856,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>42048309.57357641</v>
+        <v>42062002.15062232</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -9864,7 +9864,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>45684133.33710077</v>
+        <v>45699009.88081529</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -9872,7 +9872,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>49914722.60468546</v>
+        <v>49930976.79401961</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -9880,7 +9880,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>49818957.56115726</v>
+        <v>49835180.56564116</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -9888,7 +9888,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>50745300.24131189</v>
+        <v>50761824.89926647</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -9896,7 +9896,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>51015959.75438012</v>
+        <v>51032572.5496766</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -9904,7 +9904,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>52044647.39910444</v>
+        <v>52061595.1754019</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -9912,7 +9912,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>51296780.03569135</v>
+        <v>51313484.27707391</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -9920,7 +9920,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>52836256.27298784</v>
+        <v>52853461.82814981</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -9928,7 +9928,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>53007141.66545194</v>
+        <v>53024402.86759296</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -9936,7 +9936,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>55348110.18252555</v>
+        <v>55366133.69573465</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -9944,7 +9944,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>56694057.14712839</v>
+        <v>56712518.95340324</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -9952,7 +9952,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>56882986.33947089</v>
+        <v>56901509.668493</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -9960,7 +9960,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>58060425.99111885</v>
+        <v>58079332.7406235</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -9968,7 +9968,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>58496806.51346701</v>
+        <v>58515855.36556708</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -9976,7 +9976,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>57618592.73186273</v>
+        <v>57637355.60314717</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -9984,7 +9984,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>58591404.79570363</v>
+        <v>58610484.45271075</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -9992,7 +9992,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>58793854.62053064</v>
+        <v>58813000.2031327</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -10000,7 +10000,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>59742036.00528052</v>
+        <v>59761490.35289111</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -10008,7 +10008,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>59539725.19912073</v>
+        <v>59559113.6664063</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -10016,7 +10016,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>58533698.77954209</v>
+        <v>58552759.64520943</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -10024,7 +10024,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>58707418.9843391</v>
+        <v>58726536.42011148</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -10032,7 +10032,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>59863063.15759625</v>
+        <v>59882556.91638947</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -10040,7 +10040,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>59302224.84253842</v>
+        <v>59321535.97040266</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -10048,7 +10048,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>60754018.30734572</v>
+        <v>60773802.19604322</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -10056,7 +10056,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>61679286.69886746</v>
+        <v>61699371.89120516</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -10064,7 +10064,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>62408698.02960927</v>
+        <v>62429020.74685454</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -10072,7 +10072,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>60694413.5979135</v>
+        <v>60714178.0769823</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -10080,7 +10080,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>61995194.15527963</v>
+        <v>62015382.21946238</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -10088,7 +10088,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>62084438.2842164</v>
+        <v>62104655.4097841</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -10096,7 +10096,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>62486177.57890024</v>
+        <v>62506525.52652241</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -10104,7 +10104,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>62406159.51051974</v>
+        <v>62426481.40112373</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -10112,7 +10112,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>61814285.85266341</v>
+        <v>61834415.00601484</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -10120,7 +10120,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>61957240.00403439</v>
+        <v>61977415.70885848</v>
       </c>
     </row>
   </sheetData>
